--- a/tests/test_data/test_objective_cost_functions_cxe.xlsx
+++ b/tests/test_data/test_objective_cost_functions_cxe.xlsx
@@ -2490,7 +2490,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L2" sqref="L2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6662,7 +6662,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B2">
         <f>G2/m</f>
-        <v>1.56091740955532</v>
+        <v>1.5543766472699843</v>
       </c>
       <c r="C2">
         <f>H2/m</f>
@@ -6721,8 +6721,8 @@
         <v>154.49174095553201</v>
       </c>
       <c r="G2">
-        <f>F2+alpha*SUM(sign_weights)</f>
-        <v>156.091740955532</v>
+        <f>F2+alpha*SUM(weights)</f>
+        <v>155.43766472699843</v>
       </c>
       <c r="H2">
         <f>F2+alpha*SUM(weights_2)</f>
@@ -6751,7 +6751,7 @@
   <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:S5"/>
+      <selection activeCell="A6" sqref="A6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6821,67 +6821,67 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>U2/m</f>
+        <f t="shared" ref="A2:D5" si="0">U2/m</f>
         <v>9.9695447661893033E-2</v>
       </c>
       <c r="B2">
-        <f>V2/m</f>
+        <f t="shared" si="0"/>
         <v>0.12090385363287211</v>
       </c>
       <c r="C2">
-        <f>W2/m</f>
+        <f t="shared" si="0"/>
         <v>-4.1279043315809713E-2</v>
       </c>
       <c r="D2">
-        <f>X2/m</f>
+        <f t="shared" si="0"/>
         <v>-0.17932025797895526</v>
       </c>
       <c r="F2">
-        <f>Z2/m</f>
+        <f t="shared" ref="F2:I5" si="1">Z2/m</f>
         <v>9.9695447661893033E-2</v>
       </c>
       <c r="G2">
-        <f>AA2/m</f>
+        <f t="shared" si="1"/>
         <v>0.12090385363287211</v>
       </c>
       <c r="H2">
-        <f>AB2/m</f>
+        <f t="shared" si="1"/>
         <v>-4.1279043315809713E-2</v>
       </c>
       <c r="I2">
-        <f>AC2/m</f>
+        <f t="shared" si="1"/>
         <v>-0.17932025797895526</v>
       </c>
       <c r="K2">
-        <f>AE2/m</f>
+        <f t="shared" ref="K2:N5" si="2">AE2/m</f>
         <v>9.9695447661893033E-2</v>
       </c>
       <c r="L2">
-        <f>AF2/m</f>
+        <f t="shared" si="2"/>
         <v>0.12090385363287211</v>
       </c>
       <c r="M2">
-        <f>AG2/m</f>
+        <f t="shared" si="2"/>
         <v>-4.1279043315809713E-2</v>
       </c>
       <c r="N2">
-        <f>AH2/m</f>
+        <f t="shared" si="2"/>
         <v>-0.17932025797895526</v>
       </c>
       <c r="P2">
-        <f>AJ2/m</f>
+        <f t="shared" ref="P2:S5" si="3">AJ2/m</f>
         <v>9.9695447661893033E-2</v>
       </c>
       <c r="Q2">
-        <f>AK2/m</f>
+        <f t="shared" si="3"/>
         <v>0.12090385363287211</v>
       </c>
       <c r="R2">
-        <f>AL2/m</f>
+        <f t="shared" si="3"/>
         <v>-4.1279043315809713E-2</v>
       </c>
       <c r="S2">
-        <f>AM2/m</f>
+        <f t="shared" si="3"/>
         <v>-0.17932025797895526</v>
       </c>
       <c r="U2">
@@ -6930,19 +6930,19 @@
         <v>-17.932025797895527</v>
       </c>
       <c r="AJ2">
-        <f t="shared" ref="AJ2:AM6" si="0">U2+alpha*(AO2+AT2)</f>
+        <f t="shared" ref="AJ2:AM6" si="4">U2+alpha*(AO2+AT2)</f>
         <v>9.9695447661893031</v>
       </c>
       <c r="AK2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12.090385363287211</v>
       </c>
       <c r="AL2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-4.1279043315809716</v>
       </c>
       <c r="AM2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-17.932025797895527</v>
       </c>
       <c r="AO2">
@@ -6980,67 +6980,67 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>U3/m</f>
+        <f t="shared" si="0"/>
         <v>0.18538870629481582</v>
       </c>
       <c r="B3">
-        <f>V3/m</f>
+        <f t="shared" si="0"/>
         <v>3.2462139386539926E-2</v>
       </c>
       <c r="C3">
-        <f>W3/m</f>
+        <f t="shared" si="0"/>
         <v>8.9067661126453592E-4</v>
       </c>
       <c r="D3">
-        <f>X3/m</f>
+        <f t="shared" si="0"/>
         <v>-0.21874152229262034</v>
       </c>
       <c r="F3">
-        <f>Z3/m</f>
+        <f t="shared" si="1"/>
         <v>0.18638870629481585</v>
       </c>
       <c r="G3">
-        <f>AA3/m</f>
+        <f t="shared" si="1"/>
         <v>3.3462139386539927E-2</v>
       </c>
       <c r="H3">
-        <f>AB3/m</f>
+        <f t="shared" si="1"/>
         <v>1.8906766112645359E-3</v>
       </c>
       <c r="I3">
-        <f>AC3/m</f>
+        <f t="shared" si="1"/>
         <v>-0.21774152229262034</v>
       </c>
       <c r="K3">
-        <f>AE3/m</f>
+        <f t="shared" si="2"/>
         <v>0.18629035057469318</v>
       </c>
       <c r="L3">
-        <f>AF3/m</f>
+        <f t="shared" si="2"/>
         <v>3.2916494580957717E-2</v>
       </c>
       <c r="M3">
-        <f>AG3/m</f>
+        <f t="shared" si="2"/>
         <v>1.6412406588394656E-3</v>
       </c>
       <c r="N3">
-        <f>AH3/m</f>
+        <f t="shared" si="2"/>
         <v>-0.21790221870304058</v>
       </c>
       <c r="P3">
-        <f>AJ3/m</f>
+        <f t="shared" si="3"/>
         <v>0.18633952843475449</v>
       </c>
       <c r="Q3">
-        <f>AK3/m</f>
+        <f t="shared" si="3"/>
         <v>3.3189316983748822E-2</v>
       </c>
       <c r="R3">
-        <f>AL3/m</f>
+        <f t="shared" si="3"/>
         <v>1.7659586350520008E-3</v>
       </c>
       <c r="S3">
-        <f>AM3/m</f>
+        <f t="shared" si="3"/>
         <v>-0.21782187049783047</v>
       </c>
       <c r="U3">
@@ -7088,19 +7088,19 @@
         <v>-21.790221870304059</v>
       </c>
       <c r="AJ3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>18.633952843475448</v>
       </c>
       <c r="AK3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.3189316983748824</v>
       </c>
       <c r="AL3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.17659586350520007</v>
       </c>
       <c r="AM3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-21.782187049783047</v>
       </c>
       <c r="AO3">
@@ -7138,67 +7138,67 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>U4/m</f>
+        <f t="shared" si="0"/>
         <v>0.14443820212194702</v>
       </c>
       <c r="B4">
-        <f>V4/m</f>
+        <f t="shared" si="0"/>
         <v>-0.19738504534037346</v>
       </c>
       <c r="C4">
-        <f>W4/m</f>
+        <f t="shared" si="0"/>
         <v>0.23828481377054561</v>
       </c>
       <c r="D4">
-        <f>X4/m</f>
+        <f t="shared" si="0"/>
         <v>-0.18533797055211887</v>
       </c>
       <c r="F4">
-        <f>Z4/m</f>
+        <f t="shared" si="1"/>
         <v>0.14543820212194702</v>
       </c>
       <c r="G4">
-        <f>AA4/m</f>
+        <f t="shared" si="1"/>
         <v>-0.19638504534037346</v>
       </c>
       <c r="H4">
-        <f>AB4/m</f>
+        <f t="shared" si="1"/>
         <v>0.23928481377054564</v>
       </c>
       <c r="I4">
-        <f>AC4/m</f>
+        <f t="shared" si="1"/>
         <v>-0.18433797055211887</v>
       </c>
       <c r="K4">
-        <f>AE4/m</f>
+        <f t="shared" si="2"/>
         <v>0.14490204302900087</v>
       </c>
       <c r="L4">
-        <f>AF4/m</f>
+        <f t="shared" si="2"/>
         <v>-0.19669861524871776</v>
       </c>
       <c r="M4">
-        <f>AG4/m</f>
+        <f t="shared" si="2"/>
         <v>0.23898263988314941</v>
       </c>
       <c r="N4">
-        <f>AH4/m</f>
+        <f t="shared" si="2"/>
         <v>-0.18481754017227542</v>
       </c>
       <c r="P4">
-        <f>AJ4/m</f>
+        <f t="shared" si="3"/>
         <v>0.14517012257547393</v>
       </c>
       <c r="Q4">
-        <f>AK4/m</f>
+        <f t="shared" si="3"/>
         <v>-0.19654183029454561</v>
       </c>
       <c r="R4">
-        <f>AL4/m</f>
+        <f t="shared" si="3"/>
         <v>0.23913372682684753</v>
       </c>
       <c r="S4">
-        <f>AM4/m</f>
+        <f t="shared" si="3"/>
         <v>-0.18457775536219714</v>
       </c>
       <c r="U4">
@@ -7246,19 +7246,19 @@
         <v>-18.481754017227541</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>14.517012257547394</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-19.654183029454561</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>23.913372682684752</v>
       </c>
       <c r="AM4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-18.457775536219714</v>
       </c>
       <c r="AO4">
@@ -7296,67 +7296,67 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>U5/m</f>
+        <f t="shared" si="0"/>
         <v>-0.24122426546411677</v>
       </c>
       <c r="B5">
-        <f>V5/m</f>
+        <f t="shared" si="0"/>
         <v>8.6774260140458637E-2</v>
       </c>
       <c r="C5">
-        <f>W5/m</f>
+        <f t="shared" si="0"/>
         <v>-0.17715032508070366</v>
       </c>
       <c r="D5">
-        <f>X5/m</f>
+        <f t="shared" si="0"/>
         <v>0.3316003304043616</v>
       </c>
       <c r="F5">
-        <f>Z5/m</f>
+        <f t="shared" si="1"/>
         <v>-0.24022426546411677</v>
       </c>
       <c r="G5">
-        <f>AA5/m</f>
+        <f t="shared" si="1"/>
         <v>8.7774260140458638E-2</v>
       </c>
       <c r="H5">
-        <f>AB5/m</f>
+        <f t="shared" si="1"/>
         <v>-0.17615032508070363</v>
       </c>
       <c r="I5">
-        <f>AC5/m</f>
+        <f t="shared" si="1"/>
         <v>0.33260033040436165</v>
       </c>
       <c r="K5">
-        <f>AE5/m</f>
+        <f t="shared" si="2"/>
         <v>-0.24080527127800763</v>
       </c>
       <c r="L5">
-        <f>AF5/m</f>
+        <f t="shared" si="2"/>
         <v>8.7421988574535869E-2</v>
       </c>
       <c r="M5">
-        <f>AG5/m</f>
+        <f t="shared" si="2"/>
         <v>-0.17705559576681551</v>
       </c>
       <c r="N5">
-        <f>AH5/m</f>
+        <f t="shared" si="2"/>
         <v>0.33245277831382208</v>
       </c>
       <c r="P5">
-        <f>AJ5/m</f>
+        <f t="shared" si="3"/>
         <v>-0.24051476837106223</v>
       </c>
       <c r="Q5">
-        <f>AK5/m</f>
+        <f t="shared" si="3"/>
         <v>8.759812435749724E-2</v>
       </c>
       <c r="R5">
-        <f>AL5/m</f>
+        <f t="shared" si="3"/>
         <v>-0.17660296042375959</v>
       </c>
       <c r="S5">
-        <f>AM5/m</f>
+        <f t="shared" si="3"/>
         <v>0.33252655435909184</v>
       </c>
       <c r="U5">
@@ -7404,19 +7404,19 @@
         <v>33.245277831382211</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-24.051476837106222</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.7598124357497245</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-17.660296042375958</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>33.252655435909183</v>
       </c>
       <c r="AO5">
@@ -7453,6 +7453,70 @@
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6" si="5">U6/m</f>
+        <v>-2.2697857166308566E-2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6" si="6">V6/m</f>
+        <v>-9.1596268618691093E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6" si="7">W6/m</f>
+        <v>-8.8329041196364873E-3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="8">X6/m</f>
+        <v>0.1231270299046361</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="9">Z6/m</f>
+        <v>-2.1697857166308565E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6" si="10">AA6/m</f>
+        <v>-9.0596268618691092E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6" si="11">AB6/m</f>
+        <v>-7.8329041196364881E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6" si="12">AC6/m</f>
+        <v>0.12412702990463609</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6" si="13">AE6/m</f>
+        <v>-2.2438774103153852E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6" si="14">AF6/m</f>
+        <v>-9.1465272153345156E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" si="15">AG6/m</f>
+        <v>-7.9422522349732409E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6" si="16">AH6/m</f>
+        <v>0.12397724175999483</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6" si="17">AJ6/m</f>
+        <v>-2.2068315634731207E-2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6" si="18">AK6/m</f>
+        <v>-9.1030770386018117E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" ref="R6" si="19">AL6/m</f>
+        <v>-7.8875781773048645E-3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6" si="20">AM6/m</f>
+        <v>0.12405213583231546</v>
+      </c>
       <c r="U6">
         <v>-2.2697857166308566</v>
       </c>
@@ -7498,19 +7562,19 @@
         <v>12.397724175999484</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-2.2068315634731208</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-9.1030770386018123</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>-0.78875781773048637</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>12.405213583231546</v>
       </c>
       <c r="AO6">
@@ -7548,15 +7612,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AJ1:AM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/test_data/test_objective_cost_functions_cxe.xlsx
+++ b/tests/test_data/test_objective_cost_functions_cxe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>cost</t>
   </si>
@@ -2846,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,8 +2886,8 @@
         <v>0</v>
       </c>
       <c r="K1">
-        <f>-SUM(F1:I1)</f>
-        <v>1.7567734360152978</v>
+        <f>SUM(F1:I1)</f>
+        <v>-1.7567734360152978</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2924,8 +2924,8 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K65" si="0">-SUM(F2:I2)</f>
-        <v>1.2688921585114956</v>
+        <f t="shared" ref="K2:K65" si="0">SUM(F2:I2)</f>
+        <v>-1.2688921585114956</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>1.0109037890031862</v>
+        <v>-1.0109037890031862</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1.3442256578840186</v>
+        <v>-1.3442256578840186</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.1342336316509904</v>
+        <v>-1.1342336316509904</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.4867449588436294</v>
+        <v>-1.4867449588436294</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1.3684440646771709</v>
+        <v>-1.3684440646771709</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2.9767615673833188</v>
+        <v>-2.9767615673833188</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>1.4581570595288067</v>
+        <v>-1.4581570595288067</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>1.6445367034498444</v>
+        <v>-1.6445367034498444</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>1.5305864195823267</v>
+        <v>-1.5305864195823267</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1.8608169866622453</v>
+        <v>-1.8608169866622453</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1.2030320478545422</v>
+        <v>-1.2030320478545422</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1.3559219518007042</v>
+        <v>-1.3559219518007042</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>1.4316470843761766</v>
+        <v>-1.4316470843761766</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>1.027865635695435</v>
+        <v>-1.027865635695435</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1.3497443088018</v>
+        <v>-1.3497443088018</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1.4178243984588164</v>
+        <v>-1.4178243984588164</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>2.2888730829356665</v>
+        <v>-2.2888730829356665</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>1.0749745645599622</v>
+        <v>-1.0749745645599622</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>1.4947854720590241</v>
+        <v>-1.4947854720590241</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>1.3685469978512781</v>
+        <v>-1.3685469978512781</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>1.7902163656055086</v>
+        <v>-1.7902163656055086</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>0.67502941348379286</v>
+        <v>-0.67502941348379286</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>1.2469392404728559</v>
+        <v>-1.2469392404728559</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>1.3319301476058669</v>
+        <v>-1.3319301476058669</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>0.66626996721833287</v>
+        <v>-0.66626996721833287</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>1.3956636342328497</v>
+        <v>-1.3956636342328497</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>1.431535890202243</v>
+        <v>-1.431535890202243</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>1.2998246800485167</v>
+        <v>-1.2998246800485167</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>1.1098752388912301</v>
+        <v>-1.1098752388912301</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>1.5161463116564156</v>
+        <v>-1.5161463116564156</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>1.6994273148528645</v>
+        <v>-1.6994273148528645</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
-        <v>1.2547883556920543</v>
+        <v>-1.2547883556920543</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
-        <v>1.1857840138782789</v>
+        <v>-1.1857840138782789</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
-        <v>2.0276374638212706</v>
+        <v>-2.0276374638212706</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
-        <v>1.3728609513009136</v>
+        <v>-1.3728609513009136</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
-        <v>1.4559786859262209</v>
+        <v>-1.4559786859262209</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
-        <v>1.7546426175565568</v>
+        <v>-1.7546426175565568</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>1.2875538294759645</v>
+        <v>-1.2875538294759645</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>1.547882886901643</v>
+        <v>-1.547882886901643</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
-        <v>0.99417898714084973</v>
+        <v>-0.99417898714084973</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
-        <v>1.1366313537948458</v>
+        <v>-1.1366313537948458</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
-        <v>2.2965363261052527</v>
+        <v>-2.2965363261052527</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
-        <v>1.3131259853464887</v>
+        <v>-1.3131259853464887</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
-        <v>1.502700742453327</v>
+        <v>-1.502700742453327</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
-        <v>1.5732302697618714</v>
+        <v>-1.5732302697618714</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>1.7156552487121766</v>
+        <v>-1.7156552487121766</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>1.5181764186070617</v>
+        <v>-1.5181764186070617</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
-        <v>2.3008149006355896</v>
+        <v>-2.3008149006355896</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
-        <v>1.08446492313787</v>
+        <v>-1.08446492313787</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>1.0342354892835073</v>
+        <v>-1.0342354892835073</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>4.5306885331785205</v>
+        <v>-4.5306885331785205</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>1.3681447632327453</v>
+        <v>-1.3681447632327453</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
-        <v>1.5182358109071743</v>
+        <v>-1.5182358109071743</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2.6341971950651173</v>
+        <v>-2.6341971950651173</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>0.8516957303831213</v>
+        <v>-0.8516957303831213</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>1.8927000975690607</v>
+        <v>-1.8927000975690607</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>1.6495947548011261</v>
+        <v>-1.6495947548011261</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -5129,7 +5129,7 @@
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>1.36371478522948</v>
+        <v>-1.36371478522948</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>0.89839506189004781</v>
+        <v>-0.89839506189004781</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>1.7031894669068743</v>
+        <v>-1.7031894669068743</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>1.0614120620320155</v>
+        <v>-1.0614120620320155</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>1.292285556750761</v>
+        <v>-1.292285556750761</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="K65">
         <f t="shared" si="0"/>
-        <v>2.7846543562374624</v>
+        <v>-2.7846543562374624</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -5356,8 +5356,8 @@
         <v>-4.1889337415685697</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K100" si="1">-SUM(F66:I66)</f>
-        <v>4.1889337415685697</v>
+        <f t="shared" ref="K66:K100" si="1">SUM(F66:I66)</f>
+        <v>-4.1889337415685697</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K67">
         <f t="shared" si="1"/>
-        <v>1.6536950131216326</v>
+        <v>-1.6536950131216326</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="K68">
         <f t="shared" si="1"/>
-        <v>0.50353013235823596</v>
+        <v>-0.50353013235823596</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="K69">
         <f t="shared" si="1"/>
-        <v>1.2210759785229683</v>
+        <v>-1.2210759785229683</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5509,7 +5509,7 @@
       </c>
       <c r="K70">
         <f t="shared" si="1"/>
-        <v>1.6543036382853615</v>
+        <v>-1.6543036382853615</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="K71">
         <f t="shared" si="1"/>
-        <v>1.6132660763514992</v>
+        <v>-1.6132660763514992</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="K72">
         <f t="shared" si="1"/>
-        <v>1.3714442497891965</v>
+        <v>-1.3714442497891965</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="K73">
         <f t="shared" si="1"/>
-        <v>1.3873616965518161</v>
+        <v>-1.3873616965518161</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="K74">
         <f t="shared" si="1"/>
-        <v>2.4499912380819922</v>
+        <v>-2.4499912380819922</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="K75">
         <f t="shared" si="1"/>
-        <v>1.5365066647707055</v>
+        <v>-1.5365066647707055</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="K76">
         <f t="shared" si="1"/>
-        <v>1.2370537162915107</v>
+        <v>-1.2370537162915107</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="K77">
         <f t="shared" si="1"/>
-        <v>1.1270143693781025</v>
+        <v>-1.1270143693781025</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="K78">
         <f t="shared" si="1"/>
-        <v>1.7233055169655134</v>
+        <v>-1.7233055169655134</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="K79">
         <f t="shared" si="1"/>
-        <v>0.88329694023427496</v>
+        <v>-0.88329694023427496</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="K80">
         <f t="shared" si="1"/>
-        <v>1.4759849413485906</v>
+        <v>-1.4759849413485906</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="K81">
         <f t="shared" si="1"/>
-        <v>2.0101403139162479</v>
+        <v>-2.0101403139162479</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="K82">
         <f t="shared" si="1"/>
-        <v>3.3088948275128138</v>
+        <v>-3.3088948275128138</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="K83">
         <f t="shared" si="1"/>
-        <v>1.0968749242389042</v>
+        <v>-1.0968749242389042</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="K84">
         <f t="shared" si="1"/>
-        <v>1.258774672477357</v>
+        <v>-1.258774672477357</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="K85">
         <f t="shared" si="1"/>
-        <v>1.9647779341134675</v>
+        <v>-1.9647779341134675</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="K86">
         <f t="shared" si="1"/>
-        <v>2.0249790365845799</v>
+        <v>-2.0249790365845799</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="K87">
         <f t="shared" si="1"/>
-        <v>0.72555697837639233</v>
+        <v>-0.72555697837639233</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="K88">
         <f t="shared" si="1"/>
-        <v>1.3740241194784264</v>
+        <v>-1.3740241194784264</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="K89">
         <f t="shared" si="1"/>
-        <v>1.9941277129326083</v>
+        <v>-1.9941277129326083</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="K90">
         <f t="shared" si="1"/>
-        <v>1.2344041546846263</v>
+        <v>-1.2344041546846263</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="K91">
         <f t="shared" si="1"/>
-        <v>1.9380118074922654</v>
+        <v>-1.9380118074922654</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="K92">
         <f t="shared" si="1"/>
-        <v>1.3406585641982089</v>
+        <v>-1.3406585641982089</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="K93">
         <f t="shared" si="1"/>
-        <v>1.4105900814804202</v>
+        <v>-1.4105900814804202</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="K94">
         <f t="shared" si="1"/>
-        <v>1.3971072429496374</v>
+        <v>-1.3971072429496374</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="K95">
         <f t="shared" si="1"/>
-        <v>1.1298591237238298</v>
+        <v>-1.1298591237238298</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="K96">
         <f t="shared" si="1"/>
-        <v>1.9978313401630505</v>
+        <v>-1.9978313401630505</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="K97">
         <f t="shared" si="1"/>
-        <v>1.7589504662389155</v>
+        <v>-1.7589504662389155</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="K98">
         <f t="shared" si="1"/>
-        <v>1.7460947521489312</v>
+        <v>-1.7460947521489312</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="K99">
         <f t="shared" si="1"/>
-        <v>0.7331903738835841</v>
+        <v>-0.7331903738835841</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="K100">
         <f t="shared" si="1"/>
-        <v>1.0971908097463094</v>
+        <v>-1.0971908097463094</v>
       </c>
     </row>
   </sheetData>
@@ -6659,15 +6659,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6680,63 +6680,35 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>F2/m</f>
+        <f>-SUM(H)/m</f>
         <v>1.5449174095553202</v>
       </c>
       <c r="B2">
-        <f>G2/m</f>
-        <v>1.5543766472699843</v>
+        <f>A2+alpha*SUM(weights)</f>
+        <v>2.4908411810217506</v>
       </c>
       <c r="C2">
-        <f>H2/m</f>
-        <v>1.5515798856516785</v>
+        <f>A2+alpha*SUM(weights_2)</f>
+        <v>2.2111650191911654</v>
       </c>
       <c r="D2">
-        <f>I2/m</f>
-        <v>1.5529782664608314</v>
-      </c>
-      <c r="F2">
-        <f>SUM(H)</f>
-        <v>154.49174095553201</v>
-      </c>
-      <c r="G2">
-        <f>F2+alpha*SUM(weights)</f>
-        <v>155.43766472699843</v>
-      </c>
-      <c r="H2">
-        <f>F2+alpha*SUM(weights_2)</f>
-        <v>155.15798856516784</v>
-      </c>
-      <c r="I2">
-        <f>F2+alpha*(J2+K2)</f>
-        <v>155.29782664608314</v>
-      </c>
-      <c r="J2">
+        <f>A2+alpha*(E2+F2)</f>
+        <v>2.3510031001064577</v>
+      </c>
+      <c r="E2">
         <f>ratio*SUM(weights)</f>
         <v>4.7296188573321523</v>
       </c>
-      <c r="K2">
+      <c r="F2">
         <f>(1-ratio)*SUM(weights_2)</f>
         <v>3.331238048179225</v>
       </c>
@@ -6748,10 +6720,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:S6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6759,7 +6731,7 @@
     <col min="21" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -6786,826 +6758,497 @@
       <c r="S1" s="3"/>
       <c r="T1" s="2"/>
       <c r="U1" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Z1" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-      <c r="AE1" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
-      <c r="AJ1" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
-      <c r="AO1" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="AO1" s="3"/>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
-      <c r="AT1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:D5" si="0">U2/m</f>
+        <f t="array" ref="A2:D6">-1/m*MMULT(data,error)</f>
         <v>9.9695447661893033E-2</v>
       </c>
       <c r="B2">
+        <v>0.12090385363287212</v>
+      </c>
+      <c r="C2">
+        <v>-4.127904331580972E-2</v>
+      </c>
+      <c r="D2">
+        <v>-0.17932025797895526</v>
+      </c>
+      <c r="F2">
+        <f>A2+alpha*theta!L2</f>
+        <v>9.9695447661893033E-2</v>
+      </c>
+      <c r="G2">
+        <f>B2+alpha*theta!M2</f>
+        <v>0.12090385363287212</v>
+      </c>
+      <c r="H2">
+        <f>C2+alpha*theta!N2</f>
+        <v>-4.127904331580972E-2</v>
+      </c>
+      <c r="I2">
+        <f>D2+alpha*theta!O2</f>
+        <v>-0.17932025797895526</v>
+      </c>
+      <c r="K2">
+        <f>A2+alpha*theta!G2</f>
+        <v>9.9695447661893033E-2</v>
+      </c>
+      <c r="L2">
+        <f>B2+alpha*theta!H2</f>
+        <v>0.12090385363287212</v>
+      </c>
+      <c r="M2">
+        <f>C2+alpha*theta!I2</f>
+        <v>-4.127904331580972E-2</v>
+      </c>
+      <c r="N2">
+        <f>D2+alpha*theta!J2</f>
+        <v>-0.17932025797895526</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:S6" si="0">A2+alpha*(U2+Z2)</f>
+        <v>9.9695447661893033E-2</v>
+      </c>
+      <c r="Q2">
         <f t="shared" si="0"/>
-        <v>0.12090385363287211</v>
-      </c>
-      <c r="C2">
+        <v>0.12090385363287212</v>
+      </c>
+      <c r="R2">
         <f t="shared" si="0"/>
-        <v>-4.1279043315809713E-2</v>
-      </c>
-      <c r="D2">
+        <v>-4.127904331580972E-2</v>
+      </c>
+      <c r="S2">
         <f t="shared" si="0"/>
         <v>-0.17932025797895526</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:I5" si="1">Z2/m</f>
-        <v>9.9695447661893033E-2</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="1"/>
-        <v>0.12090385363287211</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="1"/>
-        <v>-4.1279043315809713E-2</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="1"/>
-        <v>-0.17932025797895526</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:N5" si="2">AE2/m</f>
-        <v>9.9695447661893033E-2</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="2"/>
-        <v>0.12090385363287211</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="2"/>
-        <v>-4.1279043315809713E-2</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="2"/>
-        <v>-0.17932025797895526</v>
-      </c>
-      <c r="P2">
-        <f t="shared" ref="P2:S5" si="3">AJ2/m</f>
-        <v>9.9695447661893033E-2</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="3"/>
-        <v>0.12090385363287211</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="3"/>
-        <v>-4.1279043315809713E-2</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="3"/>
-        <v>-0.17932025797895526</v>
-      </c>
       <c r="U2">
-        <f t="array" ref="U2:X6">(MMULT(data,error))</f>
-        <v>9.9695447661893031</v>
+        <f>ratio*theta!L2</f>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>12.090385363287211</v>
+        <f>ratio*theta!M2</f>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-4.1279043315809716</v>
+        <f>ratio*theta!N2</f>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-17.932025797895527</v>
+        <f>ratio*theta!O2</f>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <f>U2+alpha*theta!L2</f>
-        <v>9.9695447661893031</v>
+        <f>(1-ratio)*theta!G2</f>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <f>V2+alpha*theta!M2</f>
-        <v>12.090385363287211</v>
+        <f>(1-ratio)*theta!H2</f>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <f>W2+alpha*theta!N2</f>
-        <v>-4.1279043315809716</v>
+        <f>(1-ratio)*theta!I2</f>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <f>X2+alpha*theta!O2</f>
-        <v>-17.932025797895527</v>
-      </c>
-      <c r="AE2">
-        <f>U2+ alpha*theta!G2</f>
-        <v>9.9695447661893031</v>
-      </c>
-      <c r="AF2">
-        <f>V2+ alpha*theta!H2</f>
-        <v>12.090385363287211</v>
-      </c>
-      <c r="AG2">
-        <f>W2+ alpha*theta!I2</f>
-        <v>-4.1279043315809716</v>
-      </c>
-      <c r="AH2">
-        <f>X2+ alpha*theta!J2</f>
-        <v>-17.932025797895527</v>
-      </c>
-      <c r="AJ2">
-        <f t="shared" ref="AJ2:AM6" si="4">U2+alpha*(AO2+AT2)</f>
-        <v>9.9695447661893031</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" si="4"/>
-        <v>12.090385363287211</v>
-      </c>
-      <c r="AL2">
-        <f t="shared" si="4"/>
-        <v>-4.1279043315809716</v>
-      </c>
-      <c r="AM2">
-        <f t="shared" si="4"/>
-        <v>-17.932025797895527</v>
-      </c>
-      <c r="AO2">
-        <f>ratio*theta!L2</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>ratio*theta!M2</f>
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <f>ratio*theta!N2</f>
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <f>ratio*theta!O2</f>
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <f>(1-ratio)*theta!G2</f>
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <f>(1-ratio)*theta!H2</f>
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <f>(1-ratio)*theta!I2</f>
-        <v>0</v>
-      </c>
-      <c r="AW2">
         <f>(1-ratio)*theta!J2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.18538870629481582</v>
+      </c>
+      <c r="B3">
+        <v>3.2462139386539926E-2</v>
+      </c>
+      <c r="C3">
+        <v>8.9067661126453592E-4</v>
+      </c>
+      <c r="D3">
+        <v>-0.21874152229262034</v>
+      </c>
+      <c r="F3">
+        <f>A3+alpha*theta!L3</f>
+        <v>0.28538870629481583</v>
+      </c>
+      <c r="G3">
+        <f>B3+alpha*theta!M3</f>
+        <v>0.13246213938653995</v>
+      </c>
+      <c r="H3">
+        <f>C3+alpha*theta!N3</f>
+        <v>0.10089067661126454</v>
+      </c>
+      <c r="I3">
+        <f>D3+alpha*theta!O3</f>
+        <v>-0.11874152229262033</v>
+      </c>
+      <c r="K3">
+        <f>A3+alpha*theta!G3</f>
+        <v>0.27555313428255063</v>
+      </c>
+      <c r="L3">
+        <f>B3+alpha*theta!H3</f>
+        <v>7.7897658828319283E-2</v>
+      </c>
+      <c r="M3">
+        <f>C3+alpha*theta!I3</f>
+        <v>7.594708136875751E-2</v>
+      </c>
+      <c r="N3">
+        <f>D3+alpha*theta!J3</f>
+        <v>-0.13481116333464485</v>
+      </c>
+      <c r="P3">
         <f t="shared" si="0"/>
-        <v>0.18538870629481582</v>
-      </c>
-      <c r="B3">
+        <v>0.28047092028868326</v>
+      </c>
+      <c r="Q3">
         <f t="shared" si="0"/>
-        <v>3.2462139386539926E-2</v>
-      </c>
-      <c r="C3">
+        <v>0.1051798991074296</v>
+      </c>
+      <c r="R3">
         <f t="shared" si="0"/>
-        <v>8.9067661126453592E-4</v>
-      </c>
-      <c r="D3">
+        <v>8.8418878990011024E-2</v>
+      </c>
+      <c r="S3">
         <f t="shared" si="0"/>
-        <v>-0.21874152229262034</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0.18638870629481585</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>3.3462139386539927E-2</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>1.8906766112645359E-3</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>-0.21774152229262034</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="2"/>
-        <v>0.18629035057469318</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="2"/>
-        <v>3.2916494580957717E-2</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="2"/>
-        <v>1.6412406588394656E-3</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="2"/>
-        <v>-0.21790221870304058</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="3"/>
-        <v>0.18633952843475449</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="3"/>
-        <v>3.3189316983748822E-2</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="3"/>
-        <v>1.7659586350520008E-3</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="3"/>
-        <v>-0.21782187049783047</v>
+        <v>-0.12677634281363259</v>
       </c>
       <c r="U3">
-        <v>18.538870629481583</v>
-      </c>
-      <c r="V3">
-        <v>3.2462139386539928</v>
-      </c>
-      <c r="W3">
-        <v>8.906766112645359E-2</v>
-      </c>
-      <c r="X3">
-        <v>-21.874152229262034</v>
-      </c>
-      <c r="Z3">
-        <f>U3+alpha*theta!L3</f>
-        <v>18.638870629481584</v>
-      </c>
-      <c r="AA3">
-        <f>V3+alpha*theta!M3</f>
-        <v>3.3462139386539929</v>
-      </c>
-      <c r="AB3">
-        <f>W3+alpha*theta!N3</f>
-        <v>0.1890676611264536</v>
-      </c>
-      <c r="AC3">
-        <f>X3+alpha*theta!O3</f>
-        <v>-21.774152229262032</v>
-      </c>
-      <c r="AE3">
-        <f>U3+ alpha*theta!G3</f>
-        <v>18.629035057469316</v>
-      </c>
-      <c r="AF3">
-        <f>V3+ alpha*theta!H3</f>
-        <v>3.291649458095772</v>
-      </c>
-      <c r="AG3">
-        <f>W3+ alpha*theta!I3</f>
-        <v>0.16412406588394657</v>
-      </c>
-      <c r="AH3">
-        <f>X3+ alpha*theta!J3</f>
-        <v>-21.790221870304059</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" si="4"/>
-        <v>18.633952843475448</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" si="4"/>
-        <v>3.3189316983748824</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" si="4"/>
-        <v>0.17659586350520007</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" si="4"/>
-        <v>-21.782187049783047</v>
-      </c>
-      <c r="AO3">
         <f>ratio*theta!L3</f>
         <v>0.5</v>
       </c>
-      <c r="AP3">
+      <c r="V3">
         <f>ratio*theta!M3</f>
         <v>0.5</v>
       </c>
-      <c r="AQ3">
+      <c r="W3">
         <f>ratio*theta!N3</f>
         <v>0.5</v>
       </c>
-      <c r="AR3">
+      <c r="X3">
         <f>ratio*theta!O3</f>
         <v>0.5</v>
       </c>
-      <c r="AT3">
+      <c r="Z3">
         <f>(1-ratio)*theta!G3</f>
         <v>0.45082213993867404</v>
       </c>
-      <c r="AU3">
+      <c r="AA3">
         <f>(1-ratio)*theta!H3</f>
         <v>0.2271775972088968</v>
       </c>
-      <c r="AV3">
+      <c r="AB3">
         <f>(1-ratio)*theta!I3</f>
         <v>0.37528202378746489</v>
       </c>
-      <c r="AW3">
+      <c r="AC3">
         <f>(1-ratio)*theta!J3</f>
         <v>0.41965179478987741</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.14443820212194702</v>
+      </c>
+      <c r="B4">
+        <v>-0.19738504534037346</v>
+      </c>
+      <c r="C4">
+        <v>0.23828481377054561</v>
+      </c>
+      <c r="D4">
+        <v>-0.1853379705521189</v>
+      </c>
+      <c r="F4">
+        <f>A4+alpha*theta!L4</f>
+        <v>0.24443820212194703</v>
+      </c>
+      <c r="G4">
+        <f>B4+alpha*theta!M4</f>
+        <v>-9.7385045340373455E-2</v>
+      </c>
+      <c r="H4">
+        <f>C4+alpha*theta!N4</f>
+        <v>0.33828481377054564</v>
+      </c>
+      <c r="I4">
+        <f>D4+alpha*theta!O4</f>
+        <v>-8.5337970552118891E-2</v>
+      </c>
+      <c r="K4">
+        <f>A4+alpha*theta!G4</f>
+        <v>0.19082229282733237</v>
+      </c>
+      <c r="L4">
+        <f>B4+alpha*theta!H4</f>
+        <v>-0.12874203617480251</v>
+      </c>
+      <c r="M4">
+        <f>C4+alpha*theta!I4</f>
+        <v>0.30806742503092566</v>
+      </c>
+      <c r="N4">
+        <f>D4+alpha*theta!J4</f>
+        <v>-0.13329493256777297</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.14443820212194702</v>
-      </c>
-      <c r="B4">
+        <v>0.21763024747463972</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="0"/>
-        <v>-0.19738504534037346</v>
-      </c>
-      <c r="C4">
+        <v>-0.11306354075758798</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="0"/>
-        <v>0.23828481377054561</v>
-      </c>
-      <c r="D4">
+        <v>0.32317611940073565</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="0"/>
-        <v>-0.18533797055211887</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.14543820212194702</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>-0.19638504534037346</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>0.23928481377054564</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>-0.18433797055211887</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>0.14490204302900087</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>-0.19669861524871776</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>0.23898263988314941</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
-        <v>-0.18481754017227542</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
-        <v>0.14517012257547393</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>-0.19654183029454561</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="3"/>
-        <v>0.23913372682684753</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="3"/>
-        <v>-0.18457775536219714</v>
+        <v>-0.10931645155994593</v>
       </c>
       <c r="U4">
-        <v>14.443820212194701</v>
-      </c>
-      <c r="V4">
-        <v>-19.738504534037347</v>
-      </c>
-      <c r="W4">
-        <v>23.828481377054562</v>
-      </c>
-      <c r="X4">
-        <v>-18.533797055211888</v>
-      </c>
-      <c r="Z4">
-        <f>U4+alpha*theta!L4</f>
-        <v>14.543820212194701</v>
-      </c>
-      <c r="AA4">
-        <f>V4+alpha*theta!M4</f>
-        <v>-19.638504534037345</v>
-      </c>
-      <c r="AB4">
-        <f>W4+alpha*theta!N4</f>
-        <v>23.928481377054563</v>
-      </c>
-      <c r="AC4">
-        <f>X4+alpha*theta!O4</f>
-        <v>-18.433797055211887</v>
-      </c>
-      <c r="AE4">
-        <f>U4+ alpha*theta!G4</f>
-        <v>14.490204302900088</v>
-      </c>
-      <c r="AF4">
-        <f>V4+ alpha*theta!H4</f>
-        <v>-19.669861524871777</v>
-      </c>
-      <c r="AG4">
-        <f>W4+ alpha*theta!I4</f>
-        <v>23.898263988314941</v>
-      </c>
-      <c r="AH4">
-        <f>X4+ alpha*theta!J4</f>
-        <v>-18.481754017227541</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="4"/>
-        <v>14.517012257547394</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" si="4"/>
-        <v>-19.654183029454561</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" si="4"/>
-        <v>23.913372682684752</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" si="4"/>
-        <v>-18.457775536219714</v>
-      </c>
-      <c r="AO4">
         <f>ratio*theta!L4</f>
         <v>0.5</v>
       </c>
-      <c r="AP4">
+      <c r="V4">
         <f>ratio*theta!M4</f>
         <v>0.5</v>
       </c>
-      <c r="AQ4">
+      <c r="W4">
         <f>ratio*theta!N4</f>
         <v>0.5</v>
       </c>
-      <c r="AR4">
+      <c r="X4">
         <f>ratio*theta!O4</f>
         <v>0.5</v>
       </c>
-      <c r="AT4">
+      <c r="Z4">
         <f>(1-ratio)*theta!G4</f>
         <v>0.2319204535269267</v>
       </c>
-      <c r="AU4">
+      <c r="AA4">
         <f>(1-ratio)*theta!H4</f>
         <v>0.34321504582785473</v>
       </c>
-      <c r="AV4">
+      <c r="AB4">
         <f>(1-ratio)*theta!I4</f>
         <v>0.34891305630190012</v>
       </c>
-      <c r="AW4">
+      <c r="AC4">
         <f>(1-ratio)*theta!J4</f>
         <v>0.26021518992172954</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>-0.24122426546411679</v>
+      </c>
+      <c r="B5">
+        <v>8.6774260140458637E-2</v>
+      </c>
+      <c r="C5">
+        <v>-0.17715032508070366</v>
+      </c>
+      <c r="D5">
+        <v>0.3316003304043616</v>
+      </c>
+      <c r="F5">
+        <f>A5+alpha*theta!L5</f>
+        <v>-0.14122426546411679</v>
+      </c>
+      <c r="G5">
+        <f>B5+alpha*theta!M5</f>
+        <v>0.18677426014045864</v>
+      </c>
+      <c r="H5">
+        <f>C5+alpha*theta!N5</f>
+        <v>-7.7150325080703658E-2</v>
+      </c>
+      <c r="I5">
+        <f>D5+alpha*theta!O5</f>
+        <v>0.43160033040436163</v>
+      </c>
+      <c r="K5">
+        <f>A5+alpha*theta!G5</f>
+        <v>-0.19932484685320151</v>
+      </c>
+      <c r="L5">
+        <f>B5+alpha*theta!H5</f>
+        <v>0.1515471035481816</v>
+      </c>
+      <c r="M5">
+        <f>C5+alpha*theta!I5</f>
+        <v>-0.16767739369188878</v>
+      </c>
+      <c r="N5">
+        <f>D5+alpha*theta!J5</f>
+        <v>0.41684512135041213</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
-        <v>-0.24122426546411677</v>
-      </c>
-      <c r="B5">
+        <v>-0.17027455615865916</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
-        <v>8.6774260140458637E-2</v>
-      </c>
-      <c r="C5">
+        <v>0.16916068184432012</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="0"/>
-        <v>-0.17715032508070366</v>
-      </c>
-      <c r="D5">
+        <v>-0.12241385938629622</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="0"/>
-        <v>0.3316003304043616</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>-0.24022426546411677</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>8.7774260140458638E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>-0.17615032508070363</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0.33260033040436165</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>-0.24080527127800763</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>8.7421988574535869E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="2"/>
-        <v>-0.17705559576681551</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
-        <v>0.33245277831382208</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
-        <v>-0.24051476837106223</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="3"/>
-        <v>8.759812435749724E-2</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="3"/>
-        <v>-0.17660296042375959</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>0.33252655435909184</v>
+        <v>0.42422272587738685</v>
       </c>
       <c r="U5">
-        <v>-24.122426546411678</v>
-      </c>
-      <c r="V5">
-        <v>8.6774260140458637</v>
-      </c>
-      <c r="W5">
-        <v>-17.715032508070365</v>
-      </c>
-      <c r="X5">
-        <v>33.160033040436161</v>
-      </c>
-      <c r="Z5">
-        <f>U5+alpha*theta!L5</f>
-        <v>-24.022426546411676</v>
-      </c>
-      <c r="AA5">
-        <f>V5+alpha*theta!M5</f>
-        <v>8.7774260140458633</v>
-      </c>
-      <c r="AB5">
-        <f>W5+alpha*theta!N5</f>
-        <v>-17.615032508070364</v>
-      </c>
-      <c r="AC5">
-        <f>X5+alpha*theta!O5</f>
-        <v>33.260033040436163</v>
-      </c>
-      <c r="AE5">
-        <f>U5+ alpha*theta!G5</f>
-        <v>-24.080527127800764</v>
-      </c>
-      <c r="AF5">
-        <f>V5+ alpha*theta!H5</f>
-        <v>8.7421988574535874</v>
-      </c>
-      <c r="AG5">
-        <f>W5+ alpha*theta!I5</f>
-        <v>-17.705559576681551</v>
-      </c>
-      <c r="AH5">
-        <f>X5+ alpha*theta!J5</f>
-        <v>33.245277831382211</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="4"/>
-        <v>-24.051476837106222</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="4"/>
-        <v>8.7598124357497245</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" si="4"/>
-        <v>-17.660296042375958</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" si="4"/>
-        <v>33.252655435909183</v>
-      </c>
-      <c r="AO5">
         <f>ratio*theta!L5</f>
         <v>0.5</v>
       </c>
-      <c r="AP5">
+      <c r="V5">
         <f>ratio*theta!M5</f>
         <v>0.5</v>
       </c>
-      <c r="AQ5">
+      <c r="W5">
         <f>ratio*theta!N5</f>
         <v>0.5</v>
       </c>
-      <c r="AR5">
+      <c r="X5">
         <f>ratio*theta!O5</f>
         <v>0.5</v>
       </c>
-      <c r="AT5">
+      <c r="Z5">
         <f>(1-ratio)*theta!G5</f>
         <v>0.20949709305457634</v>
       </c>
-      <c r="AU5">
+      <c r="AA5">
         <f>(1-ratio)*theta!H5</f>
         <v>0.32386421703861479</v>
       </c>
-      <c r="AV5">
+      <c r="AB5">
         <f>(1-ratio)*theta!I5</f>
         <v>4.7364656944074435E-2</v>
       </c>
-      <c r="AW5">
+      <c r="AC5">
         <f>(1-ratio)*theta!J5</f>
         <v>0.4262239547302526</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6" si="5">U6/m</f>
         <v>-2.2697857166308566E-2</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6" si="6">V6/m</f>
         <v>-9.1596268618691093E-2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6" si="7">W6/m</f>
         <v>-8.8329041196364873E-3</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6" si="8">X6/m</f>
         <v>0.1231270299046361</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6" si="9">Z6/m</f>
-        <v>-2.1697857166308565E-2</v>
+        <f>A6+alpha*theta!L6</f>
+        <v>7.730214283369144E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6" si="10">AA6/m</f>
-        <v>-9.0596268618691092E-2</v>
+        <f>B6+alpha*theta!M6</f>
+        <v>8.4037313813089126E-3</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6" si="11">AB6/m</f>
-        <v>-7.8329041196364881E-3</v>
+        <f>C6+alpha*theta!N6</f>
+        <v>9.1167095880363522E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6" si="12">AC6/m</f>
-        <v>0.12412702990463609</v>
+        <f>D6+alpha*theta!O6</f>
+        <v>0.22312702990463612</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6" si="13">AE6/m</f>
-        <v>-2.2438774103153852E-2</v>
+        <f>A6+alpha*theta!G6</f>
+        <v>3.2104491491628251E-3</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6" si="14">AF6/m</f>
-        <v>-9.1465272153345156E-2</v>
+        <f>B6+alpha*theta!H6</f>
+        <v>-7.8496622084098536E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6" si="15">AG6/m</f>
-        <v>-7.9422522349732409E-3</v>
+        <f>C6+alpha*theta!I6</f>
+        <v>8.0232284346688262E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6" si="16">AH6/m</f>
-        <v>0.12397724175999483</v>
+        <f>D6+alpha*theta!J6</f>
+        <v>0.2081482154405096</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6" si="17">AJ6/m</f>
-        <v>-2.2068315634731207E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0256295991427132E-2</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6" si="18">AK6/m</f>
-        <v>-9.1030770386018117E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.5046445351394805E-2</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6" si="19">AL6/m</f>
-        <v>-7.8875781773048645E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.5699690113525892E-2</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6" si="20">AM6/m</f>
-        <v>0.12405213583231546</v>
+        <f t="shared" si="0"/>
+        <v>0.21563762267257286</v>
       </c>
       <c r="U6">
-        <v>-2.2697857166308566</v>
-      </c>
-      <c r="V6">
-        <v>-9.1596268618691088</v>
-      </c>
-      <c r="W6">
-        <v>-0.88329041196364877</v>
-      </c>
-      <c r="X6">
-        <v>12.31270299046361</v>
-      </c>
-      <c r="Z6">
-        <f>U6+alpha*theta!L6</f>
-        <v>-2.1697857166308565</v>
-      </c>
-      <c r="AA6">
-        <f>V6+alpha*theta!M6</f>
-        <v>-9.0596268618691091</v>
-      </c>
-      <c r="AB6">
-        <f>W6+alpha*theta!N6</f>
-        <v>-0.78329041196364879</v>
-      </c>
-      <c r="AC6">
-        <f>X6+alpha*theta!O6</f>
-        <v>12.412702990463609</v>
-      </c>
-      <c r="AE6">
-        <f>U6+ alpha*theta!G6</f>
-        <v>-2.2438774103153851</v>
-      </c>
-      <c r="AF6">
-        <f>V6+ alpha*theta!H6</f>
-        <v>-9.1465272153345154</v>
-      </c>
-      <c r="AG6">
-        <f>W6+ alpha*theta!I6</f>
-        <v>-0.79422522349732405</v>
-      </c>
-      <c r="AH6">
-        <f>X6+ alpha*theta!J6</f>
-        <v>12.397724175999484</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="4"/>
-        <v>-2.2068315634731208</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="4"/>
-        <v>-9.1030770386018123</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" si="4"/>
-        <v>-0.78875781773048637</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" si="4"/>
-        <v>12.405213583231546</v>
-      </c>
-      <c r="AO6">
         <f>ratio*theta!L6</f>
         <v>0.5</v>
       </c>
-      <c r="AP6">
+      <c r="V6">
         <f>ratio*theta!M6</f>
         <v>0.5</v>
       </c>
-      <c r="AQ6">
+      <c r="W6">
         <f>ratio*theta!N6</f>
         <v>0.5</v>
       </c>
-      <c r="AR6">
+      <c r="X6">
         <f>ratio*theta!O6</f>
         <v>0.5</v>
       </c>
-      <c r="AT6">
+      <c r="Z6">
         <f>(1-ratio)*theta!G6</f>
         <v>0.12954153157735696</v>
       </c>
-      <c r="AU6">
+      <c r="AA6">
         <f>(1-ratio)*theta!H6</f>
         <v>6.54982326729628E-2</v>
       </c>
-      <c r="AV6">
+      <c r="AB6">
         <f>(1-ratio)*theta!I6</f>
         <v>0.4453259423316237</v>
       </c>
-      <c r="AW6">
+      <c r="AC6">
         <f>(1-ratio)*theta!J6</f>
         <v>0.42510592767936756</v>
       </c>
@@ -7630,1810 +7273,1810 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A100" sqref="A1:D100"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection sqref="A1:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>y_pred!B2-y!B2</f>
-        <v>-0.82739912589658404</v>
+        <f>y!B2-y_pred!B2</f>
+        <v>0.82739912589658404</v>
       </c>
       <c r="B1">
-        <f>y_pred!C2-y!C2</f>
-        <v>0.33447252442470571</v>
+        <f>y!C2-y_pred!C2</f>
+        <v>-0.33447252442470571</v>
       </c>
       <c r="C1">
-        <f>y_pred!D2-y!D2</f>
-        <v>0.105951920730065</v>
+        <f>y!D2-y_pred!D2</f>
+        <v>-0.105951920730065</v>
       </c>
       <c r="D1">
-        <f>y_pred!E2-y!E2</f>
-        <v>0.38697468074181363</v>
+        <f>y!E2-y_pred!E2</f>
+        <v>-0.38697468074181363</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>y_pred!B3-y!B3</f>
-        <v>0.19189479416849869</v>
+        <f>y!B3-y_pred!B3</f>
+        <v>-0.19189479416849869</v>
       </c>
       <c r="B2">
-        <f>y_pred!C3-y!C3</f>
-        <v>-0.71885708890195599</v>
+        <f>y!C3-y_pred!C3</f>
+        <v>0.71885708890195599</v>
       </c>
       <c r="C2">
-        <f>y_pred!D3-y!D3</f>
-        <v>0.2330363421208895</v>
+        <f>y!D3-y_pred!D3</f>
+        <v>-0.2330363421208895</v>
       </c>
       <c r="D2">
-        <f>y_pred!E3-y!E3</f>
-        <v>0.29392595261256771</v>
+        <f>y!E3-y_pred!E3</f>
+        <v>-0.29392595261256771</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>y_pred!B4-y!B4</f>
-        <v>0.28517689131622459</v>
+        <f>y!B4-y_pred!B4</f>
+        <v>-0.28517689131622459</v>
       </c>
       <c r="B3">
-        <f>y_pred!C4-y!C4</f>
-        <v>0.21939660153229859</v>
+        <f>y!C4-y_pred!C4</f>
+        <v>-0.21939660153229859</v>
       </c>
       <c r="C3">
-        <f>y_pred!D4-y!D4</f>
-        <v>-0.63611004882844346</v>
+        <f>y!D4-y_pred!D4</f>
+        <v>0.63611004882844346</v>
       </c>
       <c r="D3">
-        <f>y_pred!E4-y!E4</f>
-        <v>0.13153655597992051</v>
+        <f>y!E4-y_pred!E4</f>
+        <v>-0.13153655597992051</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>y_pred!B5-y!B5</f>
-        <v>-0.73925846714062904</v>
+        <f>y!B5-y_pred!B5</f>
+        <v>0.73925846714062904</v>
       </c>
       <c r="B4">
-        <f>y_pred!C5-y!C5</f>
-        <v>0.44225332057381711</v>
+        <f>y!C5-y_pred!C5</f>
+        <v>-0.44225332057381711</v>
       </c>
       <c r="C4">
-        <f>y_pred!D5-y!D5</f>
-        <v>0.1122277661200969</v>
+        <f>y!D5-y_pred!D5</f>
+        <v>-0.1122277661200969</v>
       </c>
       <c r="D4">
-        <f>y_pred!E5-y!E5</f>
-        <v>0.18477738044671491</v>
+        <f>y!E5-y_pred!E5</f>
+        <v>-0.18477738044671491</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>y_pred!B6-y!B6</f>
-        <v>0.20362473126076089</v>
+        <f>y!B6-y_pred!B6</f>
+        <v>-0.20362473126076089</v>
       </c>
       <c r="B5">
-        <f>y_pred!C6-y!C6</f>
-        <v>0.17081689808676589</v>
+        <f>y!C6-y_pred!C6</f>
+        <v>-0.17081689808676589</v>
       </c>
       <c r="C5">
-        <f>y_pred!D6-y!D6</f>
-        <v>0.3038898271646106</v>
+        <f>y!D6-y_pred!D6</f>
+        <v>-0.3038898271646106</v>
       </c>
       <c r="D5">
-        <f>y_pred!E6-y!E6</f>
-        <v>-0.67833145651213766</v>
+        <f>y!E6-y_pred!E6</f>
+        <v>0.67833145651213766</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>y_pred!B7-y!B7</f>
-        <v>0.21417113672012969</v>
+        <f>y!B7-y_pred!B7</f>
+        <v>-0.21417113672012969</v>
       </c>
       <c r="B6">
-        <f>y_pred!C7-y!C7</f>
-        <v>-0.77389255195010676</v>
+        <f>y!C7-y_pred!C7</f>
+        <v>0.77389255195010676</v>
       </c>
       <c r="C6">
-        <f>y_pred!D7-y!D7</f>
-        <v>0.31403200629641642</v>
+        <f>y!D7-y_pred!D7</f>
+        <v>-0.31403200629641642</v>
       </c>
       <c r="D6">
-        <f>y_pred!E7-y!E7</f>
-        <v>0.24568940893356059</v>
+        <f>y!E7-y_pred!E7</f>
+        <v>-0.24568940893356059</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>y_pred!B8-y!B8</f>
-        <v>-0.745497358705282</v>
+        <f>y!B8-y_pred!B8</f>
+        <v>0.745497358705282</v>
       </c>
       <c r="B7">
-        <f>y_pred!C8-y!C8</f>
-        <v>0.29897728933814649</v>
+        <f>y!C8-y_pred!C8</f>
+        <v>-0.29897728933814649</v>
       </c>
       <c r="C7">
-        <f>y_pred!D8-y!D8</f>
-        <v>0.18655393754541849</v>
+        <f>y!D8-y_pred!D8</f>
+        <v>-0.18655393754541849</v>
       </c>
       <c r="D7">
-        <f>y_pred!E8-y!E8</f>
-        <v>0.25996613182171707</v>
+        <f>y!E8-y_pred!E8</f>
+        <v>-0.25996613182171707</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>y_pred!B9-y!B9</f>
-        <v>0.29152738252848232</v>
+        <f>y!B9-y_pred!B9</f>
+        <v>-0.29152738252848232</v>
       </c>
       <c r="B8">
-        <f>y_pred!C9-y!C9</f>
-        <v>0.10466934167507751</v>
+        <f>y!C9-y_pred!C9</f>
+        <v>-0.10466934167507751</v>
       </c>
       <c r="C8">
-        <f>y_pred!D9-y!D9</f>
-        <v>0.55284568613036877</v>
+        <f>y!D9-y_pred!D9</f>
+        <v>-0.55284568613036877</v>
       </c>
       <c r="D8">
-        <f>y_pred!E9-y!E9</f>
-        <v>-0.94904241033392855</v>
+        <f>y!E9-y_pred!E9</f>
+        <v>0.94904241033392855</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>y_pred!B10-y!B10</f>
-        <v>0.21675030484696889</v>
+        <f>y!B10-y_pred!B10</f>
+        <v>-0.21675030484696889</v>
       </c>
       <c r="B9">
-        <f>y_pred!C10-y!C10</f>
-        <v>-0.76733533301119694</v>
+        <f>y!C10-y_pred!C10</f>
+        <v>0.76733533301119694</v>
       </c>
       <c r="C9">
-        <f>y_pred!D10-y!D10</f>
-        <v>0.37594456393713099</v>
+        <f>y!D10-y_pred!D10</f>
+        <v>-0.37594456393713099</v>
       </c>
       <c r="D9">
-        <f>y_pred!E10-y!E10</f>
-        <v>0.1746404642270972</v>
+        <f>y!E10-y_pred!E10</f>
+        <v>-0.1746404642270972</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>y_pred!B11-y!B11</f>
-        <v>0.21832743519092371</v>
+        <f>y!B11-y_pred!B11</f>
+        <v>-0.21832743519092371</v>
       </c>
       <c r="B10">
-        <f>y_pred!C11-y!C11</f>
-        <v>0.13545636922627791</v>
+        <f>y!C11-y_pred!C11</f>
+        <v>-0.13545636922627791</v>
       </c>
       <c r="C10">
-        <f>y_pred!D11-y!D11</f>
-        <v>-0.80689799443409527</v>
+        <f>y!D11-y_pred!D11</f>
+        <v>0.80689799443409527</v>
       </c>
       <c r="D10">
-        <f>y_pred!E11-y!E11</f>
-        <v>0.45311419001689368</v>
+        <f>y!E11-y_pred!E11</f>
+        <v>-0.45311419001689368</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>y_pred!B12-y!B12</f>
-        <v>0.19223566949969781</v>
+        <f>y!B12-y_pred!B12</f>
+        <v>-0.19223566949969781</v>
       </c>
       <c r="B11">
-        <f>y_pred!C12-y!C12</f>
-        <v>0.14861938017922319</v>
+        <f>y!C12-y_pred!C12</f>
+        <v>-0.14861938017922319</v>
       </c>
       <c r="C11">
-        <f>y_pred!D12-y!D12</f>
-        <v>-0.78359127621485514</v>
+        <f>y!D12-y_pred!D12</f>
+        <v>0.78359127621485514</v>
       </c>
       <c r="D11">
-        <f>y_pred!E12-y!E12</f>
-        <v>0.44273622653593397</v>
+        <f>y!E12-y_pred!E12</f>
+        <v>-0.44273622653593397</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>y_pred!B13-y!B13</f>
-        <v>0.27408940709857582</v>
+        <f>y!B13-y_pred!B13</f>
+        <v>-0.27408940709857582</v>
       </c>
       <c r="B12">
-        <f>y_pred!C13-y!C13</f>
-        <v>0.27986087084667183</v>
+        <f>y!C13-y_pred!C13</f>
+        <v>-0.27986087084667183</v>
       </c>
       <c r="C12">
-        <f>y_pred!D13-y!D13</f>
-        <v>-0.8444545001556476</v>
+        <f>y!D13-y_pred!D13</f>
+        <v>0.8444545001556476</v>
       </c>
       <c r="D12">
-        <f>y_pred!E13-y!E13</f>
-        <v>0.29050422221040012</v>
+        <f>y!E13-y_pred!E13</f>
+        <v>-0.29050422221040012</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>y_pred!B14-y!B14</f>
-        <v>-0.69971764026353178</v>
+        <f>y!B14-y_pred!B14</f>
+        <v>0.69971764026353178</v>
       </c>
       <c r="B13">
-        <f>y_pred!C14-y!C14</f>
-        <v>0.37149587603061268</v>
+        <f>y!C14-y_pred!C14</f>
+        <v>-0.37149587603061268</v>
       </c>
       <c r="C13">
-        <f>y_pred!D14-y!D14</f>
-        <v>0.1085238300806764</v>
+        <f>y!D14-y_pred!D14</f>
+        <v>-0.1085238300806764</v>
       </c>
       <c r="D13">
-        <f>y_pred!E14-y!E14</f>
-        <v>0.2196979341522427</v>
+        <f>y!E14-y_pred!E14</f>
+        <v>-0.2196979341522427</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>y_pred!B15-y!B15</f>
-        <v>0.21119279223930559</v>
+        <f>y!B15-y_pred!B15</f>
+        <v>-0.21119279223930559</v>
       </c>
       <c r="B14">
-        <f>y_pred!C15-y!C15</f>
-        <v>0.17051859736807889</v>
+        <f>y!C15-y_pred!C15</f>
+        <v>-0.17051859736807889</v>
       </c>
       <c r="C14">
-        <f>y_pred!D15-y!D15</f>
-        <v>0.36057902132010822</v>
+        <f>y!D15-y_pred!D15</f>
+        <v>-0.36057902132010822</v>
       </c>
       <c r="D14">
-        <f>y_pred!E15-y!E15</f>
-        <v>-0.74229041092749237</v>
+        <f>y!E15-y_pred!E15</f>
+        <v>0.74229041092749237</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>y_pred!B16-y!B16</f>
-        <v>-0.76108491531227385</v>
+        <f>y!B16-y_pred!B16</f>
+        <v>0.76108491531227385</v>
       </c>
       <c r="B15">
-        <f>y_pred!C16-y!C16</f>
-        <v>0.35469436579476038</v>
+        <f>y!C16-y_pred!C16</f>
+        <v>-0.35469436579476038</v>
       </c>
       <c r="C15">
-        <f>y_pred!D16-y!D16</f>
-        <v>0.26415446204804077</v>
+        <f>y!D16-y_pred!D16</f>
+        <v>-0.26415446204804077</v>
       </c>
       <c r="D15">
-        <f>y_pred!E16-y!E16</f>
-        <v>0.14223608746947269</v>
+        <f>y!E16-y_pred!E16</f>
+        <v>-0.14223608746947269</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>y_pred!B17-y!B17</f>
-        <v>0.25594467572173629</v>
+        <f>y!B17-y_pred!B17</f>
+        <v>-0.25594467572173629</v>
       </c>
       <c r="B16">
-        <f>y_pred!C17-y!C17</f>
-        <v>-0.64223024276432161</v>
+        <f>y!C17-y_pred!C17</f>
+        <v>0.64223024276432161</v>
       </c>
       <c r="C16">
-        <f>y_pred!D17-y!D17</f>
-        <v>0.28281104009297742</v>
+        <f>y!D17-y_pred!D17</f>
+        <v>-0.28281104009297742</v>
       </c>
       <c r="D16">
-        <f>y_pred!E17-y!E17</f>
-        <v>0.1034745269496079</v>
+        <f>y!E17-y_pred!E17</f>
+        <v>-0.1034745269496079</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>y_pred!B18-y!B18</f>
-        <v>-0.74069344542621651</v>
+        <f>y!B18-y_pred!B18</f>
+        <v>0.74069344542621651</v>
       </c>
       <c r="B17">
-        <f>y_pred!C18-y!C18</f>
-        <v>0.38101058543430322</v>
+        <f>y!C18-y_pred!C18</f>
+        <v>-0.38101058543430322</v>
       </c>
       <c r="C17">
-        <f>y_pred!D18-y!D18</f>
-        <v>0.1417121825841374</v>
+        <f>y!D18-y_pred!D18</f>
+        <v>-0.1417121825841374</v>
       </c>
       <c r="D17">
-        <f>y_pred!E18-y!E18</f>
-        <v>0.21797067740777579</v>
+        <f>y!E18-y_pred!E18</f>
+        <v>-0.21797067740777579</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>y_pred!B19-y!B19</f>
-        <v>0.17544106283935459</v>
+        <f>y!B19-y_pred!B19</f>
+        <v>-0.17544106283935459</v>
       </c>
       <c r="B18">
-        <f>y_pred!C19-y!C19</f>
-        <v>6.7193288009983393E-2</v>
+        <f>y!C19-y_pred!C19</f>
+        <v>-6.7193288009983393E-2</v>
       </c>
       <c r="C18">
-        <f>y_pred!D19-y!D19</f>
-        <v>0.51512518640538907</v>
+        <f>y!D19-y_pred!D19</f>
+        <v>-0.51512518640538907</v>
       </c>
       <c r="D18">
-        <f>y_pred!E19-y!E19</f>
-        <v>-0.75775953725472689</v>
+        <f>y!E19-y_pred!E19</f>
+        <v>0.75775953725472689</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>y_pred!B20-y!B20</f>
-        <v>0.21524614248371121</v>
+        <f>y!B20-y_pred!B20</f>
+        <v>-0.21524614248371121</v>
       </c>
       <c r="B19">
-        <f>y_pred!C20-y!C20</f>
-        <v>0.52005197569483075</v>
+        <f>y!C20-y_pred!C20</f>
+        <v>-0.52005197569483075</v>
       </c>
       <c r="C19">
-        <f>y_pred!D20-y!D20</f>
-        <v>0.1633212367382357</v>
+        <f>y!D20-y_pred!D20</f>
+        <v>-0.1633212367382357</v>
       </c>
       <c r="D19">
-        <f>y_pred!E20-y!E20</f>
-        <v>-0.8986193549167778</v>
+        <f>y!E20-y_pred!E20</f>
+        <v>0.8986193549167778</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>y_pred!B21-y!B21</f>
-        <v>0.21677835666304709</v>
+        <f>y!B21-y_pred!B21</f>
+        <v>-0.21677835666304709</v>
       </c>
       <c r="B20">
-        <f>y_pred!C21-y!C21</f>
-        <v>0.14157629941851779</v>
+        <f>y!C21-y_pred!C21</f>
+        <v>-0.14157629941851779</v>
       </c>
       <c r="C20">
-        <f>y_pred!D21-y!D21</f>
-        <v>-0.65869356353001218</v>
+        <f>y!D21-y_pred!D21</f>
+        <v>0.65869356353001218</v>
       </c>
       <c r="D20">
-        <f>y_pred!E21-y!E21</f>
-        <v>0.30033890744844688</v>
+        <f>y!E21-y_pred!E21</f>
+        <v>-0.30033890744844688</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>y_pred!B22-y!B22</f>
-        <v>0.33206243241824268</v>
+        <f>y!B22-y_pred!B22</f>
+        <v>-0.33206243241824268</v>
       </c>
       <c r="B21">
-        <f>y_pred!C22-y!C22</f>
-        <v>-0.7757032825174448</v>
+        <f>y!C22-y_pred!C22</f>
+        <v>0.7757032825174448</v>
       </c>
       <c r="C21">
-        <f>y_pred!D22-y!D22</f>
-        <v>0.25187052896903139</v>
+        <f>y!D22-y_pred!D22</f>
+        <v>-0.25187052896903139</v>
       </c>
       <c r="D21">
-        <f>y_pred!E22-y!E22</f>
-        <v>0.1917703211301709</v>
+        <f>y!E22-y_pred!E22</f>
+        <v>-0.1917703211301709</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>y_pred!B23-y!B23</f>
-        <v>0.2041868557978401</v>
+        <f>y!B23-y_pred!B23</f>
+        <v>-0.2041868557978401</v>
       </c>
       <c r="B22">
-        <f>y_pred!C23-y!C23</f>
-        <v>0.29291236268709991</v>
+        <f>y!C23-y_pred!C23</f>
+        <v>-0.29291236268709991</v>
       </c>
       <c r="C22">
-        <f>y_pred!D23-y!D23</f>
-        <v>0.24842433563681751</v>
+        <f>y!D23-y_pred!D23</f>
+        <v>-0.24842433563681751</v>
       </c>
       <c r="D22">
-        <f>y_pred!E23-y!E23</f>
-        <v>-0.7455235541217573</v>
+        <f>y!E23-y_pred!E23</f>
+        <v>0.7455235541217573</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>y_pred!B24-y!B24</f>
-        <v>0.23498363049283649</v>
+        <f>y!B24-y_pred!B24</f>
+        <v>-0.23498363049283649</v>
       </c>
       <c r="B23">
-        <f>y_pred!C24-y!C24</f>
-        <v>0.23427718432847119</v>
+        <f>y!C24-y_pred!C24</f>
+        <v>-0.23427718432847119</v>
       </c>
       <c r="C23">
-        <f>y_pred!D24-y!D24</f>
-        <v>0.36381513604209631</v>
+        <f>y!D24-y_pred!D24</f>
+        <v>-0.36381513604209631</v>
       </c>
       <c r="D23">
-        <f>y_pred!E24-y!E24</f>
-        <v>-0.83307595086340402</v>
+        <f>y!E24-y_pred!E24</f>
+        <v>0.83307595086340402</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>y_pred!B25-y!B25</f>
-        <v>0.23870557937705791</v>
+        <f>y!B25-y_pred!B25</f>
+        <v>-0.23870557937705791</v>
       </c>
       <c r="B24">
-        <f>y_pred!C25-y!C25</f>
-        <v>0.1069343534388118</v>
+        <f>y!C25-y_pred!C25</f>
+        <v>-0.1069343534388118</v>
       </c>
       <c r="C24">
-        <f>y_pred!D25-y!D25</f>
-        <v>-0.49085855523632949</v>
+        <f>y!D25-y_pred!D25</f>
+        <v>0.49085855523632949</v>
       </c>
       <c r="D24">
-        <f>y_pred!E25-y!E25</f>
-        <v>0.1452186224204598</v>
+        <f>y!E25-y_pred!E25</f>
+        <v>-0.1452186224204598</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>y_pred!B26-y!B26</f>
-        <v>0.1724755840406455</v>
+        <f>y!B26-y_pred!B26</f>
+        <v>-0.1724755840406455</v>
       </c>
       <c r="B25">
-        <f>y_pred!C26-y!C26</f>
-        <v>7.7667578523306066E-2</v>
+        <f>y!C26-y_pred!C26</f>
+        <v>-7.7667578523306066E-2</v>
       </c>
       <c r="C25">
-        <f>y_pred!D26-y!D26</f>
-        <v>0.4624737748949217</v>
+        <f>y!D26-y_pred!D26</f>
+        <v>-0.4624737748949217</v>
       </c>
       <c r="D25">
-        <f>y_pred!E26-y!E26</f>
-        <v>-0.71261693745887333</v>
+        <f>y!E26-y_pred!E26</f>
+        <v>0.71261693745887333</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>y_pred!B27-y!B27</f>
-        <v>-0.73603272651866802</v>
+        <f>y!B27-y_pred!B27</f>
+        <v>0.73603272651866802</v>
       </c>
       <c r="B26">
-        <f>y_pred!C27-y!C27</f>
-        <v>0.37989480565560968</v>
+        <f>y!C27-y_pred!C27</f>
+        <v>-0.37989480565560968</v>
       </c>
       <c r="C26">
-        <f>y_pred!D27-y!D27</f>
-        <v>0.13900040886914719</v>
+        <f>y!D27-y_pred!D27</f>
+        <v>-0.13900040886914719</v>
       </c>
       <c r="D26">
-        <f>y_pred!E27-y!E27</f>
-        <v>0.21713751199391099</v>
+        <f>y!E27-y_pred!E27</f>
+        <v>-0.21713751199391099</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>y_pred!B28-y!B28</f>
-        <v>0.28821919203761748</v>
+        <f>y!B28-y_pred!B28</f>
+        <v>-0.28821919203761748</v>
       </c>
       <c r="B27">
-        <f>y_pred!C28-y!C28</f>
-        <v>7.715125032465367E-2</v>
+        <f>y!C28-y_pred!C28</f>
+        <v>-7.715125032465367E-2</v>
       </c>
       <c r="C27">
-        <f>y_pred!D28-y!D28</f>
-        <v>-0.48637916827583794</v>
+        <f>y!D28-y_pred!D28</f>
+        <v>0.48637916827583794</v>
       </c>
       <c r="D27">
-        <f>y_pred!E28-y!E28</f>
-        <v>0.1210087259135669</v>
+        <f>y!E28-y_pred!E28</f>
+        <v>-0.1210087259135669</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>y_pred!B29-y!B29</f>
-        <v>0.22324789835234179</v>
+        <f>y!B29-y_pred!B29</f>
+        <v>-0.22324789835234179</v>
       </c>
       <c r="B28">
-        <f>y_pred!C29-y!C29</f>
-        <v>-0.75233137955768337</v>
+        <f>y!C29-y_pred!C29</f>
+        <v>0.75233137955768337</v>
       </c>
       <c r="C28">
-        <f>y_pred!D29-y!D29</f>
-        <v>0.2230019647288814</v>
+        <f>y!D29-y_pred!D29</f>
+        <v>-0.2230019647288814</v>
       </c>
       <c r="D28">
-        <f>y_pred!E29-y!E29</f>
-        <v>0.30608151647645992</v>
+        <f>y!E29-y_pred!E29</f>
+        <v>-0.30608151647645992</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>y_pred!B30-y!B30</f>
-        <v>-0.76105834786974658</v>
+        <f>y!B30-y_pred!B30</f>
+        <v>0.76105834786974658</v>
       </c>
       <c r="B29">
-        <f>y_pred!C30-y!C30</f>
-        <v>0.50764109545135605</v>
+        <f>y!C30-y_pred!C30</f>
+        <v>-0.50764109545135605</v>
       </c>
       <c r="C29">
-        <f>y_pred!D30-y!D30</f>
-        <v>0.1088121778974277</v>
+        <f>y!D30-y_pred!D30</f>
+        <v>-0.1088121778974277</v>
       </c>
       <c r="D29">
-        <f>y_pred!E30-y!E30</f>
-        <v>0.14460507452096291</v>
+        <f>y!E30-y_pred!E30</f>
+        <v>-0.14460507452096291</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>y_pred!B31-y!B31</f>
-        <v>0.2033299690192408</v>
+        <f>y!B31-y_pred!B31</f>
+        <v>-0.2033299690192408</v>
       </c>
       <c r="B30">
-        <f>y_pred!C31-y!C31</f>
-        <v>9.160247273199601E-2</v>
+        <f>y!C31-y_pred!C31</f>
+        <v>-9.160247273199601E-2</v>
       </c>
       <c r="C30">
-        <f>y_pred!D31-y!D31</f>
-        <v>0.43248798076535649</v>
+        <f>y!D31-y_pred!D31</f>
+        <v>-0.43248798076535649</v>
       </c>
       <c r="D30">
-        <f>y_pred!E31-y!E31</f>
-        <v>-0.72742042251659367</v>
+        <f>y!E31-y_pred!E31</f>
+        <v>0.72742042251659367</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>y_pred!B32-y!B32</f>
-        <v>0.17318941668629151</v>
+        <f>y!B32-y_pred!B32</f>
+        <v>-0.17318941668629151</v>
       </c>
       <c r="B31">
-        <f>y_pred!C32-y!C32</f>
-        <v>-0.67039992021846784</v>
+        <f>y!C32-y_pred!C32</f>
+        <v>0.67039992021846784</v>
       </c>
       <c r="C31">
-        <f>y_pred!D32-y!D32</f>
-        <v>0.13081890078216049</v>
+        <f>y!D32-y_pred!D32</f>
+        <v>-0.13081890078216049</v>
       </c>
       <c r="D31">
-        <f>y_pred!E32-y!E32</f>
-        <v>0.36639160275001592</v>
+        <f>y!E32-y_pred!E32</f>
+        <v>-0.36639160275001592</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>y_pred!B33-y!B33</f>
-        <v>9.845040435655672E-2</v>
+        <f>y!B33-y_pred!B33</f>
+        <v>-9.845040435655672E-2</v>
       </c>
       <c r="B32">
-        <f>y_pred!C33-y!C33</f>
-        <v>-0.78044363947455142</v>
+        <f>y!C33-y_pred!C33</f>
+        <v>0.78044363947455142</v>
       </c>
       <c r="C32">
-        <f>y_pred!D33-y!D33</f>
-        <v>0.11894418298465589</v>
+        <f>y!D33-y_pred!D33</f>
+        <v>-0.11894418298465589</v>
       </c>
       <c r="D32">
-        <f>y_pred!E33-y!E33</f>
-        <v>0.56304905213333845</v>
+        <f>y!E33-y_pred!E33</f>
+        <v>-0.56304905213333845</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>y_pred!B34-y!B34</f>
-        <v>-0.81721182584349417</v>
+        <f>y!B34-y_pred!B34</f>
+        <v>0.81721182584349417</v>
       </c>
       <c r="B33">
-        <f>y_pred!C34-y!C34</f>
-        <v>0.35488798874452238</v>
+        <f>y!C34-y_pred!C34</f>
+        <v>-0.35488798874452238</v>
       </c>
       <c r="C33">
-        <f>y_pred!D34-y!D34</f>
-        <v>0.10707204932186121</v>
+        <f>y!D34-y_pred!D34</f>
+        <v>-0.10707204932186121</v>
       </c>
       <c r="D33">
-        <f>y_pred!E34-y!E34</f>
-        <v>0.35525178777711042</v>
+        <f>y!E34-y_pred!E34</f>
+        <v>-0.35525178777711042</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>y_pred!B35-y!B35</f>
-        <v>0.2608446393010635</v>
+        <f>y!B35-y_pred!B35</f>
+        <v>-0.2608446393010635</v>
       </c>
       <c r="B34">
-        <f>y_pred!C35-y!C35</f>
-        <v>-0.71486381070974059</v>
+        <f>y!C35-y_pred!C35</f>
+        <v>0.71486381070974059</v>
       </c>
       <c r="C34">
-        <f>y_pred!D35-y!D35</f>
-        <v>0.34597379521925292</v>
+        <f>y!D35-y_pred!D35</f>
+        <v>-0.34597379521925292</v>
       </c>
       <c r="D34">
-        <f>y_pred!E35-y!E35</f>
-        <v>0.10804537618942441</v>
+        <f>y!E35-y_pred!E35</f>
+        <v>-0.10804537618942441</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>y_pred!B36-y!B36</f>
-        <v>0.15949436003548109</v>
+        <f>y!B36-y_pred!B36</f>
+        <v>-0.15949436003548109</v>
       </c>
       <c r="B35">
-        <f>y_pred!C36-y!C36</f>
-        <v>5.461282132195211E-2</v>
+        <f>y!C36-y_pred!C36</f>
+        <v>-5.461282132195211E-2</v>
       </c>
       <c r="C35">
-        <f>y_pred!D36-y!D36</f>
-        <v>0.48038625444867661</v>
+        <f>y!D36-y_pred!D36</f>
+        <v>-0.48038625444867661</v>
       </c>
       <c r="D35">
-        <f>y_pred!E36-y!E36</f>
-        <v>-0.69449343580610989</v>
+        <f>y!E36-y_pred!E36</f>
+        <v>0.69449343580610989</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>y_pred!B37-y!B37</f>
-        <v>-0.86835382711274933</v>
+        <f>y!B37-y_pred!B37</f>
+        <v>0.86835382711274933</v>
       </c>
       <c r="B36">
-        <f>y_pred!C37-y!C37</f>
-        <v>5.9025566150580917E-2</v>
+        <f>y!C37-y_pred!C37</f>
+        <v>-5.9025566150580917E-2</v>
       </c>
       <c r="C36">
-        <f>y_pred!D37-y!D37</f>
-        <v>0.16882894805822979</v>
+        <f>y!D37-y_pred!D37</f>
+        <v>-0.16882894805822979</v>
       </c>
       <c r="D36">
-        <f>y_pred!E37-y!E37</f>
-        <v>0.64049931290393891</v>
+        <f>y!E37-y_pred!E37</f>
+        <v>-0.64049931290393891</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>y_pred!B38-y!B38</f>
-        <v>-0.74661898913661973</v>
+        <f>y!B38-y_pred!B38</f>
+        <v>0.74661898913661973</v>
       </c>
       <c r="B37">
-        <f>y_pred!C38-y!C38</f>
-        <v>0.25010610460446231</v>
+        <f>y!C38-y_pred!C38</f>
+        <v>-0.25010610460446231</v>
       </c>
       <c r="C37">
-        <f>y_pred!D38-y!D38</f>
-        <v>0.18865136806688729</v>
+        <f>y!D38-y_pred!D38</f>
+        <v>-0.18865136806688729</v>
       </c>
       <c r="D37">
-        <f>y_pred!E38-y!E38</f>
-        <v>0.30786151646527021</v>
+        <f>y!E38-y_pred!E38</f>
+        <v>-0.30786151646527021</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>y_pred!B39-y!B39</f>
-        <v>-0.76682795000814497</v>
+        <f>y!B39-y_pred!B39</f>
+        <v>0.76682795000814497</v>
       </c>
       <c r="B38">
-        <f>y_pred!C39-y!C39</f>
-        <v>0.33916682549417099</v>
+        <f>y!C39-y_pred!C39</f>
+        <v>-0.33916682549417099</v>
       </c>
       <c r="C38">
-        <f>y_pred!D39-y!D39</f>
-        <v>0.1894199597964647</v>
+        <f>y!D39-y_pred!D39</f>
+        <v>-0.1894199597964647</v>
       </c>
       <c r="D38">
-        <f>y_pred!E39-y!E39</f>
-        <v>0.23824116471750911</v>
+        <f>y!E39-y_pred!E39</f>
+        <v>-0.23824116471750911</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>y_pred!B40-y!B40</f>
-        <v>-0.82703095265218118</v>
+        <f>y!B40-y_pred!B40</f>
+        <v>0.82703095265218118</v>
       </c>
       <c r="B39">
-        <f>y_pred!C40-y!C40</f>
-        <v>0.35505950140404419</v>
+        <f>y!C40-y_pred!C40</f>
+        <v>-0.35505950140404419</v>
       </c>
       <c r="C39">
-        <f>y_pred!D40-y!D40</f>
-        <v>0.1155165028284971</v>
+        <f>y!D40-y_pred!D40</f>
+        <v>-0.1155165028284971</v>
       </c>
       <c r="D39">
-        <f>y_pred!E40-y!E40</f>
-        <v>0.35645494841963993</v>
+        <f>y!E40-y_pred!E40</f>
+        <v>-0.35645494841963993</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>y_pred!B41-y!B41</f>
-        <v>0.25620805030671312</v>
+        <f>y!B41-y_pred!B41</f>
+        <v>-0.25620805030671312</v>
       </c>
       <c r="B40">
-        <f>y_pred!C41-y!C41</f>
-        <v>-0.72405503338677268</v>
+        <f>y!C41-y_pred!C41</f>
+        <v>0.72405503338677268</v>
       </c>
       <c r="C40">
-        <f>y_pred!D41-y!D41</f>
-        <v>0.36774229918522228</v>
+        <f>y!D41-y_pred!D41</f>
+        <v>-0.36774229918522228</v>
       </c>
       <c r="D40">
-        <f>y_pred!E41-y!E41</f>
-        <v>0.1001046838948372</v>
+        <f>y!E41-y_pred!E41</f>
+        <v>-0.1001046838948372</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>y_pred!B42-y!B42</f>
-        <v>0.1963856859273109</v>
+        <f>y!B42-y_pred!B42</f>
+        <v>-0.1963856859273109</v>
       </c>
       <c r="B41">
-        <f>y_pred!C42-y!C42</f>
-        <v>9.1252345487044959E-2</v>
+        <f>y!C42-y_pred!C42</f>
+        <v>-9.1252345487044959E-2</v>
       </c>
       <c r="C41">
-        <f>y_pred!D42-y!D42</f>
-        <v>0.4996641657920311</v>
+        <f>y!D42-y_pred!D42</f>
+        <v>-0.4996641657920311</v>
       </c>
       <c r="D41">
-        <f>y_pred!E42-y!E42</f>
-        <v>-0.78730219720638717</v>
+        <f>y!E42-y_pred!E42</f>
+        <v>0.78730219720638717</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>y_pred!B43-y!B43</f>
-        <v>0.17240161498440751</v>
+        <f>y!B43-y_pred!B43</f>
+        <v>-0.17240161498440751</v>
       </c>
       <c r="B42">
-        <f>y_pred!C43-y!C43</f>
-        <v>0.1136390714324967</v>
+        <f>y!C43-y_pred!C43</f>
+        <v>-0.1136390714324967</v>
       </c>
       <c r="C42">
-        <f>y_pred!D43-y!D43</f>
-        <v>0.34393219669434438</v>
+        <f>y!D43-y_pred!D43</f>
+        <v>-0.34393219669434438</v>
       </c>
       <c r="D42">
-        <f>y_pred!E43-y!E43</f>
-        <v>-0.62997288311124888</v>
+        <f>y!E43-y_pred!E43</f>
+        <v>0.62997288311124888</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>y_pred!B44-y!B44</f>
-        <v>0.2388033586304798</v>
+        <f>y!B44-y_pred!B44</f>
+        <v>-0.2388033586304798</v>
       </c>
       <c r="B43">
-        <f>y_pred!C44-y!C44</f>
-        <v>-0.67910180439268908</v>
+        <f>y!C44-y_pred!C44</f>
+        <v>0.67910180439268908</v>
       </c>
       <c r="C43">
-        <f>y_pred!D44-y!D44</f>
-        <v>0.20749785071408389</v>
+        <f>y!D44-y_pred!D44</f>
+        <v>-0.20749785071408389</v>
       </c>
       <c r="D43">
-        <f>y_pred!E44-y!E44</f>
-        <v>0.23280059504812539</v>
+        <f>y!E44-y_pred!E44</f>
+        <v>-0.23280059504812539</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>y_pred!B45-y!B45</f>
-        <v>0.28847362407388161</v>
+        <f>y!B45-y_pred!B45</f>
+        <v>-0.28847362407388161</v>
       </c>
       <c r="B44">
-        <f>y_pred!C45-y!C45</f>
-        <v>0.40375594298244571</v>
+        <f>y!C45-y_pred!C45</f>
+        <v>-0.40375594298244571</v>
       </c>
       <c r="C44">
-        <f>y_pred!D45-y!D45</f>
-        <v>-0.89939329023799675</v>
+        <f>y!D45-y_pred!D45</f>
+        <v>0.89939329023799675</v>
       </c>
       <c r="D44">
-        <f>y_pred!E45-y!E45</f>
-        <v>0.20716372318166951</v>
+        <f>y!E45-y_pred!E45</f>
+        <v>-0.20716372318166951</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>y_pred!B46-y!B46</f>
-        <v>0.2246720486049624</v>
+        <f>y!B46-y_pred!B46</f>
+        <v>-0.2246720486049624</v>
       </c>
       <c r="B45">
-        <f>y_pred!C46-y!C46</f>
-        <v>0.1355190175990223</v>
+        <f>y!C46-y_pred!C46</f>
+        <v>-0.1355190175990223</v>
       </c>
       <c r="C45">
-        <f>y_pred!D46-y!D46</f>
-        <v>-0.73102208021865489</v>
+        <f>y!D46-y_pred!D46</f>
+        <v>0.73102208021865489</v>
       </c>
       <c r="D45">
-        <f>y_pred!E46-y!E46</f>
-        <v>0.37083101401467039</v>
+        <f>y!E46-y_pred!E46</f>
+        <v>-0.37083101401467039</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>y_pred!B47-y!B47</f>
-        <v>0.24881761384454321</v>
+        <f>y!B47-y_pred!B47</f>
+        <v>-0.24881761384454321</v>
       </c>
       <c r="B46">
-        <f>y_pred!C47-y!C47</f>
-        <v>0.28312465941143511</v>
+        <f>y!C47-y_pred!C47</f>
+        <v>-0.28312465941143511</v>
       </c>
       <c r="C46">
-        <f>y_pred!D47-y!D47</f>
-        <v>0.24552937066702329</v>
+        <f>y!D47-y_pred!D47</f>
+        <v>-0.24552937066702329</v>
       </c>
       <c r="D46">
-        <f>y_pred!E47-y!E47</f>
-        <v>-0.7774716439230015</v>
+        <f>y!E47-y_pred!E47</f>
+        <v>0.7774716439230015</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>y_pred!B48-y!B48</f>
-        <v>0.19023648283815739</v>
+        <f>y!B48-y_pred!B48</f>
+        <v>-0.19023648283815739</v>
       </c>
       <c r="B47">
-        <f>y_pred!C48-y!C48</f>
-        <v>0.14765849153595689</v>
+        <f>y!C48-y_pred!C48</f>
+        <v>-0.14765849153595689</v>
       </c>
       <c r="C47">
-        <f>y_pred!D48-y!D48</f>
-        <v>-0.79262577543388513</v>
+        <f>y!D48-y_pred!D48</f>
+        <v>0.79262577543388513</v>
       </c>
       <c r="D47">
-        <f>y_pred!E48-y!E48</f>
-        <v>0.45473080105977087</v>
+        <f>y!E48-y_pred!E48</f>
+        <v>-0.45473080105977087</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>y_pred!B49-y!B49</f>
-        <v>-0.82015416165777</v>
+        <f>y!B49-y_pred!B49</f>
+        <v>0.82015416165777</v>
       </c>
       <c r="B48">
-        <f>y_pred!C49-y!C49</f>
-        <v>0.40197696120090082</v>
+        <f>y!C49-y_pred!C49</f>
+        <v>-0.40197696120090082</v>
       </c>
       <c r="C48">
-        <f>y_pred!D49-y!D49</f>
-        <v>8.3406795714956822E-2</v>
+        <f>y!D49-y_pred!D49</f>
+        <v>-8.3406795714956822E-2</v>
       </c>
       <c r="D48">
-        <f>y_pred!E49-y!E49</f>
-        <v>0.33477040474191239</v>
+        <f>y!E49-y_pred!E49</f>
+        <v>-0.33477040474191239</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>y_pred!B50-y!B50</f>
-        <v>0.30365068661890898</v>
+        <f>y!B50-y_pred!B50</f>
+        <v>-0.30365068661890898</v>
       </c>
       <c r="B49">
-        <f>y_pred!C50-y!C50</f>
-        <v>0.30252628571309909</v>
+        <f>y!C50-y_pred!C50</f>
+        <v>-0.30252628571309909</v>
       </c>
       <c r="C49">
-        <f>y_pred!D50-y!D50</f>
-        <v>-0.78088891024154738</v>
+        <f>y!D50-y_pred!D50</f>
+        <v>0.78088891024154738</v>
       </c>
       <c r="D49">
-        <f>y_pred!E50-y!E50</f>
-        <v>0.1747119379095394</v>
+        <f>y!E50-y_pred!E50</f>
+        <v>-0.1747119379095394</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>y_pred!B51-y!B51</f>
-        <v>0.210419003163935</v>
+        <f>y!B51-y_pred!B51</f>
+        <v>-0.210419003163935</v>
       </c>
       <c r="B50">
-        <f>y_pred!C51-y!C51</f>
-        <v>0.49087582682991748</v>
+        <f>y!C51-y_pred!C51</f>
+        <v>-0.49087582682991748</v>
       </c>
       <c r="C50">
-        <f>y_pred!D51-y!D51</f>
-        <v>-0.89982282399261349</v>
+        <f>y!D51-y_pred!D51</f>
+        <v>0.89982282399261349</v>
       </c>
       <c r="D50">
-        <f>y_pred!E51-y!E51</f>
-        <v>0.19852799399876109</v>
+        <f>y!E51-y_pred!E51</f>
+        <v>-0.19852799399876109</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>y_pred!B52-y!B52</f>
-        <v>0.1955939441197293</v>
+        <f>y!B52-y_pred!B52</f>
+        <v>-0.1955939441197293</v>
       </c>
       <c r="B51">
-        <f>y_pred!C52-y!C52</f>
-        <v>0.15082243570985071</v>
+        <f>y!C52-y_pred!C52</f>
+        <v>-0.15082243570985071</v>
       </c>
       <c r="C51">
-        <f>y_pred!D52-y!D52</f>
-        <v>-0.66191736229748832</v>
+        <f>y!D52-y_pred!D52</f>
+        <v>0.66191736229748832</v>
       </c>
       <c r="D51">
-        <f>y_pred!E52-y!E52</f>
-        <v>0.31550098246790798</v>
+        <f>y!E52-y_pred!E52</f>
+        <v>-0.31550098246790798</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>y_pred!B53-y!B53</f>
-        <v>0.33221785205683918</v>
+        <f>y!B53-y_pred!B53</f>
+        <v>-0.33221785205683918</v>
       </c>
       <c r="B52">
-        <f>y_pred!C53-y!C53</f>
-        <v>0.1426560052537392</v>
+        <f>y!C53-y_pred!C53</f>
+        <v>-0.1426560052537392</v>
       </c>
       <c r="C52">
-        <f>y_pred!D53-y!D53</f>
-        <v>-0.64450194086283052</v>
+        <f>y!D53-y_pred!D53</f>
+        <v>0.64450194086283052</v>
       </c>
       <c r="D52">
-        <f>y_pred!E53-y!E53</f>
-        <v>0.16962808355225209</v>
+        <f>y!E53-y_pred!E53</f>
+        <v>-0.16962808355225209</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>y_pred!B54-y!B54</f>
-        <v>0.21867262903013621</v>
+        <f>y!B54-y_pred!B54</f>
+        <v>-0.21867262903013621</v>
       </c>
       <c r="B53">
-        <f>y_pred!C54-y!C54</f>
-        <v>3.8901484985815818E-2</v>
+        <f>y!C54-y_pred!C54</f>
+        <v>-3.8901484985815818E-2</v>
       </c>
       <c r="C53">
-        <f>y_pred!D54-y!D54</f>
-        <v>0.73165263020961402</v>
+        <f>y!D54-y_pred!D54</f>
+        <v>-0.73165263020961402</v>
       </c>
       <c r="D53">
-        <f>y_pred!E54-y!E54</f>
-        <v>-0.98922674422556589</v>
+        <f>y!E54-y_pred!E54</f>
+        <v>0.98922674422556589</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>y_pred!B55-y!B55</f>
-        <v>0.2455543683772663</v>
+        <f>y!B55-y_pred!B55</f>
+        <v>-0.2455543683772663</v>
       </c>
       <c r="B54">
-        <f>y_pred!C55-y!C55</f>
-        <v>0.12842971079778059</v>
+        <f>y!C55-y_pred!C55</f>
+        <v>-0.12842971079778059</v>
       </c>
       <c r="C54">
-        <f>y_pred!D55-y!D55</f>
-        <v>-0.74542117429664922</v>
+        <f>y!D55-y_pred!D55</f>
+        <v>0.74542117429664922</v>
       </c>
       <c r="D54">
-        <f>y_pred!E55-y!E55</f>
-        <v>0.37143709512160189</v>
+        <f>y!E55-y_pred!E55</f>
+        <v>-0.37143709512160189</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>y_pred!B56-y!B56</f>
-        <v>0.18821484692538001</v>
+        <f>y!B56-y_pred!B56</f>
+        <v>-0.18821484692538001</v>
       </c>
       <c r="B55">
-        <f>y_pred!C56-y!C56</f>
-        <v>-0.78090192336670483</v>
+        <f>y!C56-y_pred!C56</f>
+        <v>0.78090192336670483</v>
       </c>
       <c r="C55">
-        <f>y_pred!D56-y!D56</f>
-        <v>0.4255365649917896</v>
+        <f>y!D56-y_pred!D56</f>
+        <v>-0.4255365649917896</v>
       </c>
       <c r="D55">
-        <f>y_pred!E56-y!E56</f>
-        <v>0.16715051144953519</v>
+        <f>y!E56-y_pred!E56</f>
+        <v>-0.16715051144953519</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>y_pred!B57-y!B57</f>
-        <v>0.31379017658517588</v>
+        <f>y!B57-y_pred!B57</f>
+        <v>-0.31379017658517588</v>
       </c>
       <c r="B56">
-        <f>y_pred!C57-y!C57</f>
-        <v>0.131149878948463</v>
+        <f>y!C57-y_pred!C57</f>
+        <v>-0.131149878948463</v>
       </c>
       <c r="C56">
-        <f>y_pred!D57-y!D57</f>
-        <v>0.48328337559773271</v>
+        <f>y!D57-y_pred!D57</f>
+        <v>-0.48328337559773271</v>
       </c>
       <c r="D56">
-        <f>y_pred!E57-y!E57</f>
-        <v>-0.92822343113137151</v>
+        <f>y!E57-y_pred!E57</f>
+        <v>0.92822343113137151</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>y_pred!B58-y!B58</f>
-        <v>0.2360438583455087</v>
+        <f>y!B58-y_pred!B58</f>
+        <v>-0.2360438583455087</v>
       </c>
       <c r="B57">
-        <f>y_pred!C58-y!C58</f>
-        <v>0.1218228427564267</v>
+        <f>y!C58-y_pred!C58</f>
+        <v>-0.1218228427564267</v>
       </c>
       <c r="C57">
-        <f>y_pred!D58-y!D58</f>
-        <v>-0.57330923436863668</v>
+        <f>y!D58-y_pred!D58</f>
+        <v>0.57330923436863668</v>
       </c>
       <c r="D57">
-        <f>y_pred!E58-y!E58</f>
-        <v>0.21544253326670121</v>
+        <f>y!E58-y_pred!E58</f>
+        <v>-0.21544253326670121</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>y_pred!B59-y!B59</f>
-        <v>-0.84933554958619051</v>
+        <f>y!B59-y_pred!B59</f>
+        <v>0.84933554958619051</v>
       </c>
       <c r="B58">
-        <f>y_pred!C59-y!C59</f>
-        <v>0.1766259545386292</v>
+        <f>y!C59-y_pred!C59</f>
+        <v>-0.1766259545386292</v>
       </c>
       <c r="C58">
-        <f>y_pred!D59-y!D59</f>
-        <v>0.15038353894065401</v>
+        <f>y!D59-y_pred!D59</f>
+        <v>-0.15038353894065401</v>
       </c>
       <c r="D58">
-        <f>y_pred!E59-y!E59</f>
-        <v>0.52232605610690752</v>
+        <f>y!E59-y_pred!E59</f>
+        <v>-0.52232605610690752</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>y_pred!B60-y!B60</f>
-        <v>-0.80787224830413218</v>
+        <f>y!B60-y_pred!B60</f>
+        <v>0.80787224830413218</v>
       </c>
       <c r="B59">
-        <f>y_pred!C60-y!C60</f>
-        <v>0.43348380200414771</v>
+        <f>y!C60-y_pred!C60</f>
+        <v>-0.43348380200414771</v>
       </c>
       <c r="C59">
-        <f>y_pred!D60-y!D60</f>
-        <v>5.7271983856700598E-2</v>
+        <f>y!D60-y_pred!D60</f>
+        <v>-5.7271983856700598E-2</v>
       </c>
       <c r="D59">
-        <f>y_pred!E60-y!E60</f>
-        <v>0.31711646244328412</v>
+        <f>y!E60-y_pred!E60</f>
+        <v>-0.31711646244328412</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>y_pred!B61-y!B61</f>
-        <v>-0.74429089398868631</v>
+        <f>y!B61-y_pred!B61</f>
+        <v>0.74429089398868631</v>
       </c>
       <c r="B60">
-        <f>y_pred!C61-y!C61</f>
-        <v>0.29127778457230591</v>
+        <f>y!C61-y_pred!C61</f>
+        <v>-0.29127778457230591</v>
       </c>
       <c r="C60">
-        <f>y_pred!D61-y!D61</f>
-        <v>0.20248804904878001</v>
+        <f>y!D61-y_pred!D61</f>
+        <v>-0.20248804904878001</v>
       </c>
       <c r="D60">
-        <f>y_pred!E61-y!E61</f>
-        <v>0.25052506036760058</v>
+        <f>y!E61-y_pred!E61</f>
+        <v>-0.25052506036760058</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>y_pred!B62-y!B62</f>
-        <v>0.15626362217969489</v>
+        <f>y!B62-y_pred!B62</f>
+        <v>-0.15626362217969489</v>
       </c>
       <c r="B61">
-        <f>y_pred!C62-y!C62</f>
-        <v>0.33118180280967591</v>
+        <f>y!C62-y_pred!C62</f>
+        <v>-0.33118180280967591</v>
       </c>
       <c r="C61">
-        <f>y_pred!D62-y!D62</f>
-        <v>0.10533187222210159</v>
+        <f>y!D62-y_pred!D62</f>
+        <v>-0.10533187222210159</v>
       </c>
       <c r="D61">
-        <f>y_pred!E62-y!E62</f>
-        <v>-0.59277729721147243</v>
+        <f>y!E62-y_pred!E62</f>
+        <v>0.59277729721147243</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>y_pred!B63-y!B63</f>
-        <v>-0.81789821079648661</v>
+        <f>y!B63-y_pred!B63</f>
+        <v>0.81789821079648661</v>
       </c>
       <c r="B62">
-        <f>y_pred!C63-y!C63</f>
-        <v>0.22363422222490381</v>
+        <f>y!C63-y_pred!C63</f>
+        <v>-0.22363422222490381</v>
       </c>
       <c r="C62">
-        <f>y_pred!D63-y!D63</f>
-        <v>0.1100427648340825</v>
+        <f>y!D63-y_pred!D63</f>
+        <v>-0.1100427648340825</v>
       </c>
       <c r="D62">
-        <f>y_pred!E63-y!E63</f>
-        <v>0.48422122373750032</v>
+        <f>y!E63-y_pred!E63</f>
+        <v>-0.48422122373750032</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>y_pred!B64-y!B64</f>
-        <v>0.1311933865961388</v>
+        <f>y!B64-y_pred!B64</f>
+        <v>-0.1311933865961388</v>
       </c>
       <c r="B63">
-        <f>y_pred!C64-y!C64</f>
-        <v>-0.65403306152555696</v>
+        <f>y!C64-y_pred!C64</f>
+        <v>0.65403306152555696</v>
       </c>
       <c r="C63">
-        <f>y_pred!D64-y!D64</f>
-        <v>9.606552340397706E-2</v>
+        <f>y!D64-y_pred!D64</f>
+        <v>-9.606552340397706E-2</v>
       </c>
       <c r="D63">
-        <f>y_pred!E64-y!E64</f>
-        <v>0.42677415152544129</v>
+        <f>y!E64-y_pred!E64</f>
+        <v>-0.42677415152544129</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>y_pred!B65-y!B65</f>
-        <v>0.3471622191292365</v>
+        <f>y!B65-y_pred!B65</f>
+        <v>-0.3471622191292365</v>
       </c>
       <c r="B64">
-        <f>y_pred!C65-y!C65</f>
-        <v>0.18383341853509469</v>
+        <f>y!C65-y_pred!C65</f>
+        <v>-0.18383341853509469</v>
       </c>
       <c r="C64">
-        <f>y_pred!D65-y!D65</f>
-        <v>-0.72535764547868342</v>
+        <f>y!D65-y_pred!D65</f>
+        <v>0.72535764547868342</v>
       </c>
       <c r="D64">
-        <f>y_pred!E65-y!E65</f>
-        <v>0.19436200781435209</v>
+        <f>y!E65-y_pred!E65</f>
+        <v>-0.19436200781435209</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>y_pred!B66-y!B66</f>
-        <v>0.26319801347586352</v>
+        <f>y!B66-y_pred!B66</f>
+        <v>-0.26319801347586352</v>
       </c>
       <c r="B65">
-        <f>y_pred!C66-y!C66</f>
-        <v>0.13560503268743329</v>
+        <f>y!C66-y_pred!C66</f>
+        <v>-0.13560503268743329</v>
       </c>
       <c r="C65">
-        <f>y_pred!D66-y!D66</f>
-        <v>0.53944652484335387</v>
+        <f>y!D66-y_pred!D66</f>
+        <v>-0.53944652484335387</v>
       </c>
       <c r="D65">
-        <f>y_pred!E66-y!E66</f>
-        <v>-0.93824957100665052</v>
+        <f>y!E66-y_pred!E66</f>
+        <v>0.93824957100665052</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>y_pred!B67-y!B67</f>
-        <v>0.20303718452278641</v>
+        <f>y!B67-y_pred!B67</f>
+        <v>-0.20303718452278641</v>
       </c>
       <c r="B66">
-        <f>y_pred!C67-y!C67</f>
-        <v>5.3419353555241522E-2</v>
+        <f>y!C67-y_pred!C67</f>
+        <v>-5.3419353555241522E-2</v>
       </c>
       <c r="C66">
-        <f>y_pred!D67-y!D67</f>
-        <v>0.72838101858195448</v>
+        <f>y!D67-y_pred!D67</f>
+        <v>-0.72838101858195448</v>
       </c>
       <c r="D66">
-        <f>y_pred!E67-y!E67</f>
-        <v>-0.98483755665998229</v>
+        <f>y!E67-y_pred!E67</f>
+        <v>0.98483755665998229</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>y_pred!B68-y!B68</f>
-        <v>-0.8086584088844746</v>
+        <f>y!B68-y_pred!B68</f>
+        <v>0.8086584088844746</v>
       </c>
       <c r="B67">
-        <f>y_pred!C68-y!C68</f>
-        <v>0.19934094659995319</v>
+        <f>y!C68-y_pred!C68</f>
+        <v>-0.19934094659995319</v>
       </c>
       <c r="C67">
-        <f>y_pred!D68-y!D68</f>
-        <v>0.28418348256019738</v>
+        <f>y!D68-y_pred!D68</f>
+        <v>-0.28418348256019738</v>
       </c>
       <c r="D67">
-        <f>y_pred!E68-y!E68</f>
-        <v>0.32513397972432417</v>
+        <f>y!E68-y_pred!E68</f>
+        <v>-0.32513397972432417</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>y_pred!B69-y!B69</f>
-        <v>0.14011185147458949</v>
+        <f>y!B69-y_pred!B69</f>
+        <v>-0.14011185147458949</v>
       </c>
       <c r="B68">
-        <f>y_pred!C69-y!C69</f>
-        <v>-0.39560669899629353</v>
+        <f>y!C69-y_pred!C69</f>
+        <v>0.39560669899629353</v>
       </c>
       <c r="C68">
-        <f>y_pred!D69-y!D69</f>
-        <v>6.9254713319766126E-2</v>
+        <f>y!D69-y_pred!D69</f>
+        <v>-6.9254713319766126E-2</v>
       </c>
       <c r="D68">
-        <f>y_pred!E69-y!E69</f>
-        <v>0.1862401342019378</v>
+        <f>y!E69-y_pred!E69</f>
+        <v>-0.1862401342019378</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>y_pred!B70-y!B70</f>
-        <v>-0.70508732355782788</v>
+        <f>y!B70-y_pred!B70</f>
+        <v>0.70508732355782788</v>
       </c>
       <c r="B69">
-        <f>y_pred!C70-y!C70</f>
-        <v>0.24790588250023979</v>
+        <f>y!C70-y_pred!C70</f>
+        <v>-0.24790588250023979</v>
       </c>
       <c r="C69">
-        <f>y_pred!D70-y!D70</f>
-        <v>0.1292448435158122</v>
+        <f>y!D70-y_pred!D70</f>
+        <v>-0.1292448435158122</v>
       </c>
       <c r="D69">
-        <f>y_pred!E70-y!E70</f>
-        <v>0.32793659754177568</v>
+        <f>y!E70-y_pred!E70</f>
+        <v>-0.32793659754177568</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>y_pred!B71-y!B71</f>
-        <v>0.29001031314345521</v>
+        <f>y!B71-y_pred!B71</f>
+        <v>-0.29001031314345521</v>
       </c>
       <c r="B70">
-        <f>y_pred!C71-y!C71</f>
-        <v>-0.80877482876006879</v>
+        <f>y!C71-y_pred!C71</f>
+        <v>0.80877482876006879</v>
       </c>
       <c r="C70">
-        <f>y_pred!D71-y!D71</f>
-        <v>0.31452699599550238</v>
+        <f>y!D71-y_pred!D71</f>
+        <v>-0.31452699599550238</v>
       </c>
       <c r="D70">
-        <f>y_pred!E71-y!E71</f>
-        <v>0.20423751962111111</v>
+        <f>y!E71-y_pred!E71</f>
+        <v>-0.20423751962111111</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>y_pred!B72-y!B72</f>
-        <v>-0.80076416916783111</v>
+        <f>y!B72-y_pred!B72</f>
+        <v>0.80076416916783111</v>
       </c>
       <c r="B71">
-        <f>y_pred!C72-y!C72</f>
-        <v>0.33632379475102181</v>
+        <f>y!C72-y_pred!C72</f>
+        <v>-0.33632379475102181</v>
       </c>
       <c r="C71">
-        <f>y_pred!D72-y!D72</f>
-        <v>8.7881976916196106E-2</v>
+        <f>y!D72-y_pred!D72</f>
+        <v>-8.7881976916196106E-2</v>
       </c>
       <c r="D71">
-        <f>y_pred!E72-y!E72</f>
-        <v>0.37655839750061298</v>
+        <f>y!E72-y_pred!E72</f>
+        <v>-0.37655839750061298</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>y_pred!B73-y!B73</f>
-        <v>0.1537614484538331</v>
+        <f>y!B73-y_pred!B73</f>
+        <v>-0.1537614484538331</v>
       </c>
       <c r="B72">
-        <f>y_pred!C73-y!C73</f>
-        <v>-0.74625976948205619</v>
+        <f>y!C73-y_pred!C73</f>
+        <v>0.74625976948205619</v>
       </c>
       <c r="C72">
-        <f>y_pred!D73-y!D73</f>
-        <v>0.26658474112424613</v>
+        <f>y!D73-y_pred!D73</f>
+        <v>-0.26658474112424613</v>
       </c>
       <c r="D72">
-        <f>y_pred!E73-y!E73</f>
-        <v>0.32591357990397712</v>
+        <f>y!E73-y_pred!E73</f>
+        <v>-0.32591357990397712</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>y_pred!B74-y!B74</f>
-        <v>0.107155571549363</v>
+        <f>y!B74-y_pred!B74</f>
+        <v>-0.107155571549363</v>
       </c>
       <c r="B73">
-        <f>y_pred!C74-y!C74</f>
-        <v>-0.75026669150801539</v>
+        <f>y!C74-y_pred!C74</f>
+        <v>0.75026669150801539</v>
       </c>
       <c r="C73">
-        <f>y_pred!D74-y!D74</f>
-        <v>9.3705799964421577E-2</v>
+        <f>y!D74-y_pred!D74</f>
+        <v>-9.3705799964421577E-2</v>
       </c>
       <c r="D73">
-        <f>y_pred!E74-y!E74</f>
-        <v>0.54940531999423092</v>
+        <f>y!E74-y_pred!E74</f>
+        <v>-0.54940531999423092</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>y_pred!B75-y!B75</f>
-        <v>0.25819161699824872</v>
+        <f>y!B75-y_pred!B75</f>
+        <v>-0.25819161699824872</v>
       </c>
       <c r="B74">
-        <f>y_pred!C75-y!C75</f>
-        <v>0.23753398109038659</v>
+        <f>y!C75-y_pred!C75</f>
+        <v>-0.23753398109038659</v>
       </c>
       <c r="C74">
-        <f>y_pred!D75-y!D75</f>
-        <v>0.41798005931135229</v>
+        <f>y!D75-y_pred!D75</f>
+        <v>-0.41798005931135229</v>
       </c>
       <c r="D74">
-        <f>y_pred!E75-y!E75</f>
-        <v>-0.91370565739998755</v>
+        <f>y!E75-y_pred!E75</f>
+        <v>0.91370565739998755</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>y_pred!B76-y!B76</f>
-        <v>0.2201303936284057</v>
+        <f>y!B76-y_pred!B76</f>
+        <v>-0.2201303936284057</v>
       </c>
       <c r="B75">
-        <f>y_pred!C76-y!C76</f>
-        <v>0.13774680907863249</v>
+        <f>y!C76-y_pred!C76</f>
+        <v>-0.13774680907863249</v>
       </c>
       <c r="C75">
-        <f>y_pred!D76-y!D76</f>
-        <v>-0.7848686839061797</v>
+        <f>y!D76-y_pred!D76</f>
+        <v>0.7848686839061797</v>
       </c>
       <c r="D75">
-        <f>y_pred!E76-y!E76</f>
-        <v>0.4269914811991416</v>
+        <f>y!E76-y_pred!E76</f>
+        <v>-0.4269914811991416</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f>y_pred!B77-y!B77</f>
-        <v>0.17363823688199659</v>
+        <f>y!B77-y_pred!B77</f>
+        <v>-0.17363823688199659</v>
       </c>
       <c r="B76">
-        <f>y_pred!C77-y!C77</f>
-        <v>-0.70976191680716938</v>
+        <f>y!C77-y_pred!C77</f>
+        <v>0.70976191680716938</v>
       </c>
       <c r="C76">
-        <f>y_pred!D77-y!D77</f>
-        <v>0.1135514075907742</v>
+        <f>y!D77-y_pred!D77</f>
+        <v>-0.1135514075907742</v>
       </c>
       <c r="D76">
-        <f>y_pred!E77-y!E77</f>
-        <v>0.42257227233439859</v>
+        <f>y!E77-y_pred!E77</f>
+        <v>-0.42257227233439859</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f>y_pred!B78-y!B78</f>
-        <v>0.30629358789309241</v>
+        <f>y!B78-y_pred!B78</f>
+        <v>-0.30629358789309241</v>
       </c>
       <c r="B77">
-        <f>y_pred!C78-y!C78</f>
-        <v>0.16142188602642771</v>
+        <f>y!C78-y_pred!C78</f>
+        <v>-0.16142188602642771</v>
       </c>
       <c r="C77">
-        <f>y_pred!D78-y!D78</f>
-        <v>-0.67600084440390718</v>
+        <f>y!D78-y_pred!D78</f>
+        <v>0.67600084440390718</v>
       </c>
       <c r="D77">
-        <f>y_pred!E78-y!E78</f>
-        <v>0.20828537048438711</v>
+        <f>y!E78-y_pred!E78</f>
+        <v>-0.20828537048438711</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f>y_pred!B79-y!B79</f>
-        <v>-0.82152478107741567</v>
+        <f>y!B79-y_pred!B79</f>
+        <v>0.82152478107741567</v>
       </c>
       <c r="B78">
-        <f>y_pred!C79-y!C79</f>
-        <v>0.26588310437641699</v>
+        <f>y!C79-y_pred!C79</f>
+        <v>-0.26588310437641699</v>
       </c>
       <c r="C78">
-        <f>y_pred!D79-y!D79</f>
-        <v>0.1068061998721183</v>
+        <f>y!D79-y_pred!D79</f>
+        <v>-0.1068061998721183</v>
       </c>
       <c r="D78">
-        <f>y_pred!E79-y!E79</f>
-        <v>0.44883547682888042</v>
+        <f>y!E79-y_pred!E79</f>
+        <v>-0.44883547682888042</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>y_pred!B80-y!B80</f>
-        <v>0.31687246515131229</v>
+        <f>y!B80-y_pred!B80</f>
+        <v>-0.31687246515131229</v>
       </c>
       <c r="B79">
-        <f>y_pred!C80-y!C80</f>
-        <v>0.1660778654535911</v>
+        <f>y!C80-y_pred!C80</f>
+        <v>-0.1660778654535911</v>
       </c>
       <c r="C79">
-        <f>y_pred!D80-y!D80</f>
-        <v>-0.58658235095709033</v>
+        <f>y!D80-y_pred!D80</f>
+        <v>0.58658235095709033</v>
       </c>
       <c r="D79">
-        <f>y_pred!E80-y!E80</f>
-        <v>0.10363202035218699</v>
+        <f>y!E80-y_pred!E80</f>
+        <v>-0.10363202035218699</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f>y_pred!B81-y!B81</f>
-        <v>0.29390049114117128</v>
+        <f>y!B81-y_pred!B81</f>
+        <v>-0.29390049114117128</v>
       </c>
       <c r="B80">
-        <f>y_pred!C81-y!C81</f>
-        <v>0.21999119387572241</v>
+        <f>y!C81-y_pred!C81</f>
+        <v>-0.21999119387572241</v>
       </c>
       <c r="C80">
-        <f>y_pred!D81-y!D81</f>
-        <v>-0.77144649564894263</v>
+        <f>y!D81-y_pred!D81</f>
+        <v>0.77144649564894263</v>
       </c>
       <c r="D80">
-        <f>y_pred!E81-y!E81</f>
-        <v>0.25755481063204883</v>
+        <f>y!E81-y_pred!E81</f>
+        <v>-0.25755481063204883</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>y_pred!B82-y!B82</f>
-        <v>-0.86603012448794825</v>
+        <f>y!B82-y_pred!B82</f>
+        <v>0.86603012448794825</v>
       </c>
       <c r="B81">
-        <f>y_pred!C82-y!C82</f>
-        <v>9.1018754692946166E-2</v>
+        <f>y!C82-y_pred!C82</f>
+        <v>-9.1018754692946166E-2</v>
       </c>
       <c r="C81">
-        <f>y_pred!D82-y!D82</f>
-        <v>0.14617518179232969</v>
+        <f>y!D82-y_pred!D82</f>
+        <v>-0.14617518179232969</v>
       </c>
       <c r="D81">
-        <f>y_pred!E82-y!E82</f>
-        <v>0.62883618800267227</v>
+        <f>y!E82-y_pred!E82</f>
+        <v>-0.62883618800267227</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f>y_pred!B83-y!B83</f>
-        <v>0.2931014216536536</v>
+        <f>y!B83-y_pred!B83</f>
+        <v>-0.2931014216536536</v>
       </c>
       <c r="B82">
-        <f>y_pred!C83-y!C83</f>
-        <v>8.8014426908542692E-2</v>
+        <f>y!C83-y_pred!C83</f>
+        <v>-8.8014426908542692E-2</v>
       </c>
       <c r="C82">
-        <f>y_pred!D83-y!D83</f>
-        <v>0.58232759870473494</v>
+        <f>y!D83-y_pred!D83</f>
+        <v>-0.58232759870473494</v>
       </c>
       <c r="D82">
-        <f>y_pred!E83-y!E83</f>
-        <v>-0.9634434472669311</v>
+        <f>y!E83-y_pred!E83</f>
+        <v>0.9634434472669311</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f>y_pred!B84-y!B84</f>
-        <v>0.1596737250213002</v>
+        <f>y!B84-y_pred!B84</f>
+        <v>-0.1596737250213002</v>
       </c>
       <c r="B83">
-        <f>y_pred!C84-y!C84</f>
-        <v>0.37055426939248098</v>
+        <f>y!C84-y_pred!C84</f>
+        <v>-0.37055426939248098</v>
       </c>
       <c r="C83">
-        <f>y_pred!D84-y!D84</f>
-        <v>0.13585904741249019</v>
+        <f>y!D84-y_pred!D84</f>
+        <v>-0.13585904741249019</v>
       </c>
       <c r="D83">
-        <f>y_pred!E84-y!E84</f>
-        <v>-0.66608704182627143</v>
+        <f>y!E84-y_pred!E84</f>
+        <v>0.66608704182627143</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f>y_pred!B85-y!B85</f>
-        <v>0.14076785311343529</v>
+        <f>y!B85-y_pred!B85</f>
+        <v>-0.14076785311343529</v>
       </c>
       <c r="B84">
-        <f>y_pred!C85-y!C85</f>
-        <v>-0.71599819138466603</v>
+        <f>y!C85-y_pred!C85</f>
+        <v>0.71599819138466603</v>
       </c>
       <c r="C84">
-        <f>y_pred!D85-y!D85</f>
-        <v>0.28264319683342298</v>
+        <f>y!D85-y_pred!D85</f>
+        <v>-0.28264319683342298</v>
       </c>
       <c r="D84">
-        <f>y_pred!E85-y!E85</f>
-        <v>0.29258714143780767</v>
+        <f>y!E85-y_pred!E85</f>
+        <v>-0.29258714143780767</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>y_pred!B86-y!B86</f>
-        <v>0.28185738814444911</v>
+        <f>y!B86-y_pred!B86</f>
+        <v>-0.28185738814444911</v>
       </c>
       <c r="B85">
-        <f>y_pred!C86-y!C86</f>
-        <v>0.14951551568558369</v>
+        <f>y!C86-y_pred!C86</f>
+        <v>-0.14951551568558369</v>
       </c>
       <c r="C85">
-        <f>y_pred!D86-y!D86</f>
-        <v>0.42844008225691022</v>
+        <f>y!D86-y_pred!D86</f>
+        <v>-0.42844008225691022</v>
       </c>
       <c r="D85">
-        <f>y_pred!E86-y!E86</f>
-        <v>-0.85981298608694301</v>
+        <f>y!E86-y_pred!E86</f>
+        <v>0.85981298608694301</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f>y_pred!B87-y!B87</f>
-        <v>0.23671291700680011</v>
+        <f>y!B87-y_pred!B87</f>
+        <v>-0.23671291700680011</v>
       </c>
       <c r="B86">
-        <f>y_pred!C87-y!C87</f>
-        <v>0.22430295315364129</v>
+        <f>y!C87-y_pred!C87</f>
+        <v>-0.22430295315364129</v>
       </c>
       <c r="C86">
-        <f>y_pred!D87-y!D87</f>
-        <v>0.40698751958095719</v>
+        <f>y!D87-y_pred!D87</f>
+        <v>-0.40698751958095719</v>
       </c>
       <c r="D86">
-        <f>y_pred!E87-y!E87</f>
-        <v>-0.86800338974139857</v>
+        <f>y!E87-y_pred!E87</f>
+        <v>0.86800338974139857</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f>y_pred!B88-y!B88</f>
-        <v>0.19623729607123691</v>
+        <f>y!B88-y_pred!B88</f>
+        <v>-0.19623729607123691</v>
       </c>
       <c r="B87">
-        <f>y_pred!C88-y!C88</f>
-        <v>-0.51594511424587353</v>
+        <f>y!C88-y_pred!C88</f>
+        <v>0.51594511424587353</v>
       </c>
       <c r="C87">
-        <f>y_pred!D88-y!D88</f>
-        <v>0.1903220286262573</v>
+        <f>y!D88-y_pred!D88</f>
+        <v>-0.1903220286262573</v>
       </c>
       <c r="D87">
-        <f>y_pred!E88-y!E88</f>
-        <v>0.1293857895483792</v>
+        <f>y!E88-y_pred!E88</f>
+        <v>-0.1293857895483792</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f>y_pred!B89-y!B89</f>
-        <v>-0.74691354252446851</v>
+        <f>y!B89-y_pred!B89</f>
+        <v>0.74691354252446851</v>
       </c>
       <c r="B88">
-        <f>y_pred!C89-y!C89</f>
-        <v>0.33573819870786598</v>
+        <f>y!C89-y_pred!C89</f>
+        <v>-0.33573819870786598</v>
       </c>
       <c r="C88">
-        <f>y_pred!D89-y!D89</f>
-        <v>0.1534079165684028</v>
+        <f>y!D89-y_pred!D89</f>
+        <v>-0.1534079165684028</v>
       </c>
       <c r="D88">
-        <f>y_pred!E89-y!E89</f>
-        <v>0.25776742724819951</v>
+        <f>y!E89-y_pred!E89</f>
+        <v>-0.25776742724819951</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f>y_pred!B90-y!B90</f>
-        <v>0.19839883069297801</v>
+        <f>y!B90-y_pred!B90</f>
+        <v>-0.19839883069297801</v>
       </c>
       <c r="B89">
-        <f>y_pred!C90-y!C90</f>
-        <v>0.1236589501459119</v>
+        <f>y!C90-y_pred!C90</f>
+        <v>-0.1236589501459119</v>
       </c>
       <c r="C89">
-        <f>y_pred!D90-y!D90</f>
-        <v>-0.86386765112122743</v>
+        <f>y!D90-y_pred!D90</f>
+        <v>0.86386765112122743</v>
       </c>
       <c r="D89">
-        <f>y_pred!E90-y!E90</f>
-        <v>0.54180987028233762</v>
+        <f>y!E90-y_pred!E90</f>
+        <v>-0.54180987028233762</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f>y_pred!B91-y!B91</f>
-        <v>-0.70899189346341673</v>
+        <f>y!B91-y_pred!B91</f>
+        <v>0.70899189346341673</v>
       </c>
       <c r="B90">
-        <f>y_pred!C91-y!C91</f>
-        <v>0.34493562635316882</v>
+        <f>y!C91-y_pred!C91</f>
+        <v>-0.34493562635316882</v>
       </c>
       <c r="C90">
-        <f>y_pred!D91-y!D91</f>
-        <v>0.11997731267818661</v>
+        <f>y!D91-y_pred!D91</f>
+        <v>-0.11997731267818661</v>
       </c>
       <c r="D90">
-        <f>y_pred!E91-y!E91</f>
-        <v>0.24407895443206151</v>
+        <f>y!E91-y_pred!E91</f>
+        <v>-0.24407895443206151</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f>y_pred!B92-y!B92</f>
-        <v>0.27808660469650742</v>
+        <f>y!B92-y_pred!B92</f>
+        <v>-0.27808660469650742</v>
       </c>
       <c r="B91">
-        <f>y_pred!C92-y!C92</f>
-        <v>0.22118345022339059</v>
+        <f>y!C92-y_pred!C92</f>
+        <v>-0.22118345022339059</v>
       </c>
       <c r="C91">
-        <f>y_pred!D92-y!D92</f>
-        <v>0.35673999997344352</v>
+        <f>y!D92-y_pred!D92</f>
+        <v>-0.35673999997344352</v>
       </c>
       <c r="D91">
-        <f>y_pred!E92-y!E92</f>
-        <v>-0.85601005489334148</v>
+        <f>y!E92-y_pred!E92</f>
+        <v>0.85601005489334148</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f>y_pred!B93-y!B93</f>
-        <v>0.21622928065539859</v>
+        <f>y!B93-y_pred!B93</f>
+        <v>-0.21622928065539859</v>
       </c>
       <c r="B92">
-        <f>y_pred!C93-y!C93</f>
-        <v>0.14182194797278219</v>
+        <f>y!C93-y_pred!C93</f>
+        <v>-0.14182194797278219</v>
       </c>
       <c r="C92">
-        <f>y_pred!D93-y!D93</f>
-        <v>-0.73832671683279605</v>
+        <f>y!D93-y_pred!D93</f>
+        <v>0.73832671683279605</v>
       </c>
       <c r="D92">
-        <f>y_pred!E93-y!E93</f>
-        <v>0.38027548820461538</v>
+        <f>y!E93-y_pred!E93</f>
+        <v>-0.38027548820461538</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f>y_pred!B94-y!B94</f>
-        <v>-0.75600073878000384</v>
+        <f>y!B94-y_pred!B94</f>
+        <v>0.75600073878000384</v>
       </c>
       <c r="B93">
-        <f>y_pred!C94-y!C94</f>
-        <v>0.48102487836008262</v>
+        <f>y!C94-y_pred!C94</f>
+        <v>-0.48102487836008262</v>
       </c>
       <c r="C93">
-        <f>y_pred!D94-y!D94</f>
-        <v>0.1130871621903303</v>
+        <f>y!D94-y_pred!D94</f>
+        <v>-0.1130871621903303</v>
       </c>
       <c r="D93">
-        <f>y_pred!E94-y!E94</f>
-        <v>0.16188869822959101</v>
+        <f>y!E94-y_pred!E94</f>
+        <v>-0.16188869822959101</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f>y_pred!B95-y!B95</f>
-        <v>-0.75268865818970732</v>
+        <f>y!B95-y_pred!B95</f>
+        <v>0.75268865818970732</v>
       </c>
       <c r="B94">
-        <f>y_pred!C95-y!C95</f>
-        <v>0.43700589116150529</v>
+        <f>y!C95-y_pred!C95</f>
+        <v>-0.43700589116150529</v>
       </c>
       <c r="C94">
-        <f>y_pred!D95-y!D95</f>
-        <v>0.14126407382851269</v>
+        <f>y!D95-y_pred!D95</f>
+        <v>-0.14126407382851269</v>
       </c>
       <c r="D94">
-        <f>y_pred!E95-y!E95</f>
-        <v>0.17441869319968931</v>
+        <f>y!E95-y_pred!E95</f>
+        <v>-0.17441869319968931</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f>y_pred!B96-y!B96</f>
-        <v>0.18301084048531699</v>
+        <f>y!B96-y_pred!B96</f>
+        <v>-0.18301084048531699</v>
       </c>
       <c r="B95">
-        <f>y_pred!C96-y!C96</f>
-        <v>-0.67692123264987347</v>
+        <f>y!C96-y_pred!C96</f>
+        <v>0.67692123264987347</v>
       </c>
       <c r="C95">
-        <f>y_pred!D96-y!D96</f>
-        <v>0.1760226383988</v>
+        <f>y!D96-y_pred!D96</f>
+        <v>-0.1760226383988</v>
       </c>
       <c r="D95">
-        <f>y_pred!E96-y!E96</f>
-        <v>0.31788775376575662</v>
+        <f>y!E96-y_pred!E96</f>
+        <v>-0.31788775376575662</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f>y_pred!B97-y!B97</f>
-        <v>0.34044400978361761</v>
+        <f>y!B97-y_pred!B97</f>
+        <v>-0.34044400978361761</v>
       </c>
       <c r="B96">
-        <f>y_pred!C97-y!C97</f>
-        <v>0.388285069582258</v>
+        <f>y!C97-y_pred!C97</f>
+        <v>-0.388285069582258</v>
       </c>
       <c r="C96">
-        <f>y_pred!D97-y!D97</f>
-        <v>-0.86437090209322553</v>
+        <f>y!D97-y_pred!D97</f>
+        <v>0.86437090209322553</v>
       </c>
       <c r="D96">
-        <f>y_pred!E97-y!E97</f>
-        <v>0.1356418227273499</v>
+        <f>y!E97-y_pred!E97</f>
+        <v>-0.1356418227273499</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f>y_pred!B98-y!B98</f>
-        <v>-0.82777447449526242</v>
+        <f>y!B98-y_pred!B98</f>
+        <v>0.82777447449526242</v>
       </c>
       <c r="B97">
-        <f>y_pred!C98-y!C98</f>
-        <v>0.3209452545762505</v>
+        <f>y!C98-y_pred!C98</f>
+        <v>-0.3209452545762505</v>
       </c>
       <c r="C97">
-        <f>y_pred!D98-y!D98</f>
-        <v>0.1146186457857539</v>
+        <f>y!D98-y_pred!D98</f>
+        <v>-0.1146186457857539</v>
       </c>
       <c r="D97">
-        <f>y_pred!E98-y!E98</f>
-        <v>0.39221057413325811</v>
+        <f>y!E98-y_pred!E98</f>
+        <v>-0.39221057413325811</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f>y_pred!B99-y!B99</f>
-        <v>0.29156064420998168</v>
+        <f>y!B99-y_pred!B99</f>
+        <v>-0.29156064420998168</v>
       </c>
       <c r="B98">
-        <f>y_pred!C99-y!C99</f>
-        <v>0.35118356031928499</v>
+        <f>y!C99-y_pred!C99</f>
+        <v>-0.35118356031928499</v>
       </c>
       <c r="C98">
-        <f>y_pred!D99-y!D99</f>
-        <v>-0.82554609939387924</v>
+        <f>y!D99-y_pred!D99</f>
+        <v>0.82554609939387924</v>
       </c>
       <c r="D98">
-        <f>y_pred!E99-y!E99</f>
-        <v>0.18280189486461251</v>
+        <f>y!E99-y_pred!E99</f>
+        <v>-0.18280189486461251</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f>y_pred!B100-y!B100</f>
-        <v>0.23504416872726569</v>
+        <f>y!B100-y_pred!B100</f>
+        <v>-0.23504416872726569</v>
       </c>
       <c r="B99">
-        <f>y_pred!C100-y!C100</f>
-        <v>-0.51962602982031447</v>
+        <f>y!C100-y_pred!C100</f>
+        <v>0.51962602982031447</v>
       </c>
       <c r="C99">
-        <f>y_pred!D100-y!D100</f>
-        <v>0.1170884481237295</v>
+        <f>y!D100-y_pred!D100</f>
+        <v>-0.1170884481237295</v>
       </c>
       <c r="D99">
-        <f>y_pred!E100-y!E100</f>
-        <v>0.1674934129693193</v>
+        <f>y!E100-y_pred!E100</f>
+        <v>-0.1674934129693193</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f>y_pred!B101-y!B101</f>
-        <v>0.26743947343263041</v>
+        <f>y!B101-y_pred!B101</f>
+        <v>-0.26743947343263041</v>
       </c>
       <c r="B100">
-        <f>y_pred!C101-y!C101</f>
-        <v>-0.66619250343271985</v>
+        <f>y!C101-y_pred!C101</f>
+        <v>0.66619250343271985</v>
       </c>
       <c r="C100">
-        <f>y_pred!D101-y!D101</f>
-        <v>0.3168341148458057</v>
+        <f>y!D101-y_pred!D101</f>
+        <v>-0.3168341148458057</v>
       </c>
       <c r="D100">
-        <f>y_pred!E101-y!E101</f>
-        <v>8.1918915154283872E-2</v>
+        <f>y!E101-y_pred!E101</f>
+        <v>-8.1918915154283872E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11009,7 +10652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12736,7 +12379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
